--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_17_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_17_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>663840.9735181134</v>
+        <v>659675.8746348796</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33932838.81031689</v>
+        <v>33932838.81031688</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6534713.651117922</v>
+        <v>6534713.651117917</v>
       </c>
     </row>
     <row r="9">
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="C5" t="n">
-        <v>3.262548922260277</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>3.262548922260277</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="E5" t="n">
-        <v>2.873653090726851</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>3.262548922260277</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>2.066753047649844</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,76 +974,76 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3.262548922260276</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.262548922260276</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
         <v>2.873653090726851</v>
       </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>3.262548922260277</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
       <c r="X6" t="n">
-        <v>3.262548922260277</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.262548922260277</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>3.262548922260277</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>3.262548922260277</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>2.873653090726851</v>
       </c>
       <c r="X7" t="n">
-        <v>3.262548922260277</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.873653090726851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1220,64 +1220,64 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
+      <c r="V9" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="H9" t="n">
-        <v>40.6378963153706</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>37.06736141641883</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>36.39025468426209</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1296,19 +1296,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="F10" t="n">
-        <v>36.39025468426208</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>41.31500304752735</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>18.54795713427877</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>17.8422975499833</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>250.2035458378588</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>352.3954878227174</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1530,22 +1530,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>101.0116487939713</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0937685836068</v>
+        <v>11.45461388085714</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
         <v>239.8247518556274</v>
@@ -1590,7 +1590,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1615,16 +1615,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>294.7485637220672</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735099</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>174.1520217478743</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H15" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,25 +1767,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>131.1141568043022</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>18.58065792654969</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1827,10 +1827,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>421.2316425880441</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1858,7 +1858,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
         <v>267.0243359415286</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>266.1231433521322</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1940,7 +1940,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H18" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2004,25 +2004,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>22.68454702280377</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>63.62546569681869</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2083,22 +2083,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>27.27615869555161</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2140,13 +2140,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>136.9014715324577</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2177,7 +2177,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H21" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2241,10 +2241,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>21.7886997540433</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2253,10 +2253,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>49.34995949258573</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
         <v>275.6027656317444</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>19.36368256772188</v>
       </c>
       <c r="E23" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.4411721128946</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>266.343371731269</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>38.54651292818659</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>209.3624689967422</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>12.74593945311232</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>414.9510387864824</v>
@@ -2484,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>37.36934422710667</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>163.0639424294076</v>
@@ -2538,10 +2538,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>206.6129145069684</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2569,10 +2569,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.4411721128946</v>
       </c>
       <c r="H26" t="n">
-        <v>266.343371731269</v>
+        <v>256.0506336455655</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>66.56185043824374</v>
+        <v>209.3624689967422</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4746651801473</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.4624845871731</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>239.69731283314</v>
       </c>
       <c r="U28" t="n">
         <v>275.6011387506063</v>
@@ -2778,10 +2778,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>93.67997878992874</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>225.1454739790328</v>
+        <v>218.6835580326245</v>
       </c>
     </row>
     <row r="29">
@@ -2794,19 +2794,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>200.8787337128723</v>
       </c>
       <c r="G29" t="n">
-        <v>395.4411721128946</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2842,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>38.54651292818659</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4746651801473</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>122.4604611984268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2955,19 +2955,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.0639424294076</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>130.755438388961</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.4624845871731</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>102.1266735623852</v>
+        <v>206.1289023856638</v>
       </c>
       <c r="U31" t="n">
         <v>275.6011387506063</v>
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>431.5506869772999</v>
@@ -3040,13 +3040,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>395.4411721128946</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>266.343371731269</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,19 +3079,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>38.54651292818659</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>169.8781244916412</v>
       </c>
       <c r="U32" t="n">
-        <v>213.470691941452</v>
+        <v>256.4746651801473</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3189,7 +3189,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>137.2676839541315</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3243,7 +3243,7 @@
         <v>239.69731283314</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6011387506063</v>
+        <v>242.0327283031304</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>28.83275982128665</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>395.4411721128946</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>266.343371731269</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>38.54651292818659</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.3624689967422</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4746651801473</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>344.2323542994412</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3429,22 +3429,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>69.08342252572795</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>130.755438388961</v>
       </c>
       <c r="I37" t="n">
-        <v>61.56737989728833</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.4624845871731</v>
       </c>
       <c r="T37" t="n">
         <v>239.69731283314</v>
@@ -3486,7 +3486,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>137.4597904438227</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3505,22 +3505,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>10.24867171120376</v>
       </c>
       <c r="G38" t="n">
         <v>395.4411721128946</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>266.343371731269</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>38.54651292818659</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.3624689967422</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4746651801473</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>257.3829327998206</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3666,13 +3666,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>163.0639424294076</v>
@@ -3711,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.4624845871731</v>
       </c>
       <c r="T40" t="n">
         <v>239.69731283314</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6011387506063</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>259.8879173780919</v>
       </c>
       <c r="W40" t="n">
-        <v>155.9521079570446</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>48.15196717658316</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
@@ -3751,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>38.54651292818659</v>
       </c>
       <c r="T41" t="n">
         <v>209.3624689967422</v>
@@ -3799,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>55.29651257426151</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
@@ -3900,7 +3900,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,16 +3909,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0639424294076</v>
+        <v>141.6415774490632</v>
       </c>
       <c r="H43" t="n">
         <v>130.755438388961</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>61.56737989728833</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>120.9173746529225</v>
+        <v>142.4624845871731</v>
       </c>
       <c r="T43" t="n">
         <v>239.69731283314</v>
@@ -3957,7 +3957,7 @@
         <v>275.6011387506063</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3979,10 +3979,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>37.13202221438647</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
@@ -3991,10 +3991,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>395.4411721128946</v>
+        <v>196.9736095302351</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>266.343371731269</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4039,7 +4039,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4137,10 +4137,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>25.49330315865295</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.0639424294076</v>
       </c>
       <c r="H46" t="n">
         <v>130.755438388961</v>
@@ -4188,7 +4188,7 @@
         <v>142.4624845871731</v>
       </c>
       <c r="T46" t="n">
-        <v>239.69731283314</v>
+        <v>108.7435550935</v>
       </c>
       <c r="U46" t="n">
         <v>275.6011387506063</v>
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13.05019568904111</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="C5" t="n">
-        <v>9.75469172716204</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="D5" t="n">
-        <v>6.459187765282972</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="E5" t="n">
-        <v>3.55650787565989</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2610039137808222</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2610039137808222</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="H5" t="n">
-        <v>0.2610039137808222</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2610039137808222</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="J5" t="n">
-        <v>1.160310701713749</v>
+        <v>1.160310701713751</v>
       </c>
       <c r="K5" t="n">
-        <v>2.50813845558963</v>
+        <v>2.508138455589632</v>
       </c>
       <c r="L5" t="n">
         <v>4.180237967355347</v>
@@ -4582,13 +4582,13 @@
         <v>7.931409106423309</v>
       </c>
       <c r="O5" t="n">
-        <v>9.716685196678942</v>
+        <v>9.71668519667894</v>
       </c>
       <c r="P5" t="n">
         <v>11.24037703589</v>
       </c>
       <c r="Q5" t="n">
-        <v>12.38460615143388</v>
+        <v>12.38460615143387</v>
       </c>
       <c r="R5" t="n">
         <v>13.05019568904111</v>
@@ -4606,13 +4606,13 @@
         <v>13.05019568904111</v>
       </c>
       <c r="W5" t="n">
-        <v>13.05019568904111</v>
+        <v>12.23514514047847</v>
       </c>
       <c r="X5" t="n">
-        <v>13.05019568904111</v>
+        <v>10.14751579941802</v>
       </c>
       <c r="Y5" t="n">
-        <v>13.05019568904111</v>
+        <v>10.14751579941802</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.55650787565989</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="C6" t="n">
-        <v>3.55650787565989</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="D6" t="n">
-        <v>3.55650787565989</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="E6" t="n">
-        <v>3.55650787565989</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2610039137808222</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2610039137808222</v>
+        <v>3.556507875659889</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2610039137808222</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I6" t="n">
-        <v>3.490927346818497</v>
+        <v>1.255807204432017</v>
       </c>
       <c r="J6" t="n">
-        <v>4.026548308843082</v>
+        <v>4.485730637469691</v>
       </c>
       <c r="K6" t="n">
-        <v>4.942009845394733</v>
+        <v>5.401192174021342</v>
       </c>
       <c r="L6" t="n">
-        <v>6.172960856258996</v>
+        <v>6.632143184885605</v>
       </c>
       <c r="M6" t="n">
-        <v>7.60942262572932</v>
+        <v>8.068604954355928</v>
       </c>
       <c r="N6" t="n">
-        <v>9.083903263912129</v>
+        <v>9.543085592538736</v>
       </c>
       <c r="O6" t="n">
-        <v>10.43276498467475</v>
+        <v>10.89194731330136</v>
       </c>
       <c r="P6" t="n">
-        <v>11.51534543333667</v>
+        <v>11.97452776196328</v>
       </c>
       <c r="Q6" t="n">
-        <v>12.69820412233483</v>
+        <v>12.69820412233482</v>
       </c>
       <c r="R6" t="n">
         <v>13.05019568904111</v>
@@ -4685,13 +4685,13 @@
         <v>13.05019568904111</v>
       </c>
       <c r="W6" t="n">
-        <v>13.05019568904111</v>
+        <v>10.14751579941802</v>
       </c>
       <c r="X6" t="n">
-        <v>9.75469172716204</v>
+        <v>6.852011837538956</v>
       </c>
       <c r="Y6" t="n">
-        <v>6.459187765282972</v>
+        <v>6.852011837538956</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.55650787565989</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="C7" t="n">
-        <v>3.55650787565989</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="D7" t="n">
-        <v>3.55650787565989</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="E7" t="n">
-        <v>3.55650787565989</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="F7" t="n">
-        <v>3.55650787565989</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="G7" t="n">
-        <v>3.55650787565989</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="H7" t="n">
-        <v>3.55650787565989</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2610039137808222</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="J7" t="n">
-        <v>3.490927346818497</v>
+        <v>3.490927346818495</v>
       </c>
       <c r="K7" t="n">
-        <v>6.394627437018734</v>
+        <v>4.043130126599839</v>
       </c>
       <c r="L7" t="n">
-        <v>7.101256878375861</v>
+        <v>4.749759567956965</v>
       </c>
       <c r="M7" t="n">
-        <v>7.84629854752842</v>
+        <v>5.494801237109523</v>
       </c>
       <c r="N7" t="n">
-        <v>8.57362479103854</v>
+        <v>6.222127480619645</v>
       </c>
       <c r="O7" t="n">
-        <v>9.245428298083951</v>
+        <v>6.893930987665053</v>
       </c>
       <c r="P7" t="n">
-        <v>9.820272256003435</v>
+        <v>9.820272256003433</v>
       </c>
       <c r="Q7" t="n">
         <v>13.05019568904111</v>
       </c>
       <c r="R7" t="n">
-        <v>9.75469172716204</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="S7" t="n">
-        <v>9.75469172716204</v>
+        <v>9.754691727162038</v>
       </c>
       <c r="T7" t="n">
-        <v>9.75469172716204</v>
+        <v>6.459187765282971</v>
       </c>
       <c r="U7" t="n">
-        <v>9.75469172716204</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="V7" t="n">
-        <v>9.75469172716204</v>
+        <v>3.163683803403904</v>
       </c>
       <c r="W7" t="n">
-        <v>9.75469172716204</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="X7" t="n">
-        <v>6.459187765282972</v>
+        <v>0.2610039137808221</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.55650787565989</v>
+        <v>0.2610039137808221</v>
       </c>
     </row>
     <row r="8">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>127.8182329816055</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="C9" t="n">
-        <v>127.8182329816055</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="D9" t="n">
-        <v>127.8182329816055</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="E9" t="n">
-        <v>86.08590667097184</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="F9" t="n">
-        <v>86.08590667097184</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G9" t="n">
-        <v>44.35358036033816</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H9" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="I9" t="n">
-        <v>5.706527910441171</v>
+        <v>31.77020107089877</v>
       </c>
       <c r="J9" t="n">
-        <v>12.29595456866669</v>
+        <v>59.89648401348967</v>
       </c>
       <c r="K9" t="n">
-        <v>23.55833427601031</v>
+        <v>71.1588637208333</v>
       </c>
       <c r="L9" t="n">
-        <v>38.70199365651513</v>
+        <v>86.30252310133811</v>
       </c>
       <c r="M9" t="n">
-        <v>67.40294954297083</v>
+        <v>103.9744593181195</v>
       </c>
       <c r="N9" t="n">
-        <v>85.54260932692307</v>
+        <v>122.1141191020718</v>
       </c>
       <c r="O9" t="n">
-        <v>102.136854159046</v>
+        <v>138.7083639341947</v>
       </c>
       <c r="P9" t="n">
-        <v>115.4551986112916</v>
+        <v>152.0267083864403</v>
       </c>
       <c r="Q9" t="n">
-        <v>124.3581591730573</v>
+        <v>160.929668948206</v>
       </c>
       <c r="R9" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="S9" t="n">
-        <v>127.8182329816055</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="T9" t="n">
-        <v>127.8182329816055</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="U9" t="n">
-        <v>127.8182329816055</v>
+        <v>123.5276858794757</v>
       </c>
       <c r="V9" t="n">
-        <v>127.8182329816055</v>
+        <v>81.79535956884203</v>
       </c>
       <c r="W9" t="n">
-        <v>127.8182329816055</v>
+        <v>40.06303325820834</v>
       </c>
       <c r="X9" t="n">
-        <v>127.8182329816055</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="Y9" t="n">
-        <v>127.8182329816055</v>
+        <v>3.305200243802188</v>
       </c>
     </row>
     <row r="10">
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>165.2600121901094</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="C10" t="n">
-        <v>165.2600121901094</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="D10" t="n">
-        <v>165.2600121901094</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="E10" t="n">
-        <v>165.2600121901094</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F10" t="n">
-        <v>128.5021791757032</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="G10" t="n">
-        <v>86.76985286506957</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="H10" t="n">
         <v>45.03752655443588</v>
@@ -4965,19 +4965,19 @@
         <v>44.20705326085427</v>
       </c>
       <c r="K10" t="n">
-        <v>51.00047617709629</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="L10" t="n">
-        <v>59.69371861623731</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="M10" t="n">
-        <v>70.29524528094761</v>
+        <v>136.0791245210935</v>
       </c>
       <c r="N10" t="n">
-        <v>111.1970982979997</v>
+        <v>145.026987427909</v>
       </c>
       <c r="O10" t="n">
-        <v>119.4618979460225</v>
+        <v>153.2917870759318</v>
       </c>
       <c r="P10" t="n">
         <v>160.3637509630746</v>
@@ -4986,28 +4986,28 @@
         <v>165.2600121901094</v>
       </c>
       <c r="R10" t="n">
-        <v>165.2600121901094</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="S10" t="n">
-        <v>165.2600121901094</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="T10" t="n">
-        <v>165.2600121901094</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="U10" t="n">
-        <v>165.2600121901094</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="V10" t="n">
-        <v>165.2600121901094</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="W10" t="n">
-        <v>165.2600121901094</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="X10" t="n">
-        <v>165.2600121901094</v>
+        <v>128.5021791757032</v>
       </c>
       <c r="Y10" t="n">
-        <v>165.2600121901094</v>
+        <v>128.5021791757032</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1578.072968758064</v>
+        <v>699.4400972511531</v>
       </c>
       <c r="C11" t="n">
-        <v>1578.072968758064</v>
+        <v>699.4400972511531</v>
       </c>
       <c r="D11" t="n">
-        <v>1578.072968758064</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="E11" t="n">
-        <v>1144.298223916359</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F11" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G11" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001352</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N11" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q11" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R11" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447737</v>
+        <v>1889.485634438362</v>
       </c>
       <c r="V11" t="n">
-        <v>2360.327577447737</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="W11" t="n">
-        <v>2360.327577447737</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="X11" t="n">
-        <v>2004.372539242972</v>
+        <v>1107.7262209515</v>
       </c>
       <c r="Y11" t="n">
-        <v>2004.372539242972</v>
+        <v>699.4400972511531</v>
       </c>
     </row>
     <row r="12">
@@ -5102,28 +5102,28 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E12" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043098</v>
       </c>
       <c r="J12" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210685</v>
       </c>
       <c r="L12" t="n">
         <v>551.5786779960906</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>616.081764785142</v>
+        <v>743.6816307030845</v>
       </c>
       <c r="C13" t="n">
-        <v>616.081764785142</v>
+        <v>571.1199191863094</v>
       </c>
       <c r="D13" t="n">
-        <v>616.081764785142</v>
+        <v>405.2419263878321</v>
       </c>
       <c r="E13" t="n">
-        <v>446.3237610358793</v>
+        <v>235.4839226385694</v>
       </c>
       <c r="F13" t="n">
-        <v>344.2917925571204</v>
+        <v>58.77686860032557</v>
       </c>
       <c r="G13" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J13" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K13" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L13" t="n">
-        <v>688.1212571728194</v>
+        <v>481.9462364092371</v>
       </c>
       <c r="M13" t="n">
-        <v>818.7256495113488</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N13" t="n">
-        <v>1120.185357954413</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O13" t="n">
-        <v>1657.620488527957</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P13" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S13" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T13" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U13" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V13" t="n">
-        <v>1552.738213270317</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W13" t="n">
-        <v>1280.711808856609</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="X13" t="n">
-        <v>1035.320054190021</v>
+        <v>1162.919920107963</v>
       </c>
       <c r="Y13" t="n">
-        <v>807.9003835041292</v>
+        <v>935.5002494220716</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1355.033554032792</v>
+        <v>1488.706182588659</v>
       </c>
       <c r="C14" t="n">
-        <v>916.8910812162151</v>
+        <v>1050.563709772082</v>
       </c>
       <c r="D14" t="n">
-        <v>480.9812963906596</v>
+        <v>614.6539249465263</v>
       </c>
       <c r="E14" t="n">
-        <v>47.20655154895474</v>
+        <v>614.6539249465263</v>
       </c>
       <c r="F14" t="n">
-        <v>47.20655154895474</v>
+        <v>614.6539249465263</v>
       </c>
       <c r="G14" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001354</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867024</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q14" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R14" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S14" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T14" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U14" t="n">
-        <v>2319.861207662534</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="V14" t="n">
-        <v>1957.244257596361</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="W14" t="n">
-        <v>1957.244257596361</v>
+        <v>1915.005753073566</v>
       </c>
       <c r="X14" t="n">
-        <v>1957.244257596361</v>
+        <v>1915.005753073566</v>
       </c>
       <c r="Y14" t="n">
-        <v>1781.3331245177</v>
+        <v>1915.005753073566</v>
       </c>
     </row>
     <row r="15">
@@ -5336,37 +5336,37 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043082</v>
       </c>
       <c r="J15" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668988</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210689</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960912</v>
       </c>
       <c r="M15" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987884</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>471.655226289377</v>
+        <v>989.073385369672</v>
       </c>
       <c r="C16" t="n">
-        <v>471.655226289377</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D16" t="n">
-        <v>305.7772334908997</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E16" t="n">
-        <v>287.0088921509505</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F16" t="n">
-        <v>110.3018381127067</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G16" t="n">
-        <v>110.3018381127067</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H16" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J16" t="n">
         <v>192.6919004158277</v>
@@ -5442,28 +5442,28 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L16" t="n">
-        <v>1106.33113894078</v>
+        <v>828.1746199579899</v>
       </c>
       <c r="M16" t="n">
         <v>1412.355695376305</v>
       </c>
       <c r="N16" t="n">
-        <v>1539.854607180195</v>
+        <v>1539.854607180194</v>
       </c>
       <c r="O16" t="n">
-        <v>1657.620488527957</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P16" t="n">
-        <v>2105.896438675982</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S16" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T16" t="n">
         <v>1973.653814855378</v>
@@ -5472,16 +5472,16 @@
         <v>1695.267182904121</v>
       </c>
       <c r="V16" t="n">
-        <v>1408.311674774552</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W16" t="n">
-        <v>1136.285270360843</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="X16" t="n">
-        <v>890.8935156942559</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="Y16" t="n">
-        <v>663.4738450083642</v>
+        <v>1180.892004088659</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>744.7955325958366</v>
+        <v>1580.208008741915</v>
       </c>
       <c r="C17" t="n">
-        <v>744.7955325958366</v>
+        <v>1580.208008741915</v>
       </c>
       <c r="D17" t="n">
-        <v>744.7955325958366</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="E17" t="n">
-        <v>744.7955325958366</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F17" t="n">
-        <v>316.9281030050443</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G17" t="n">
         <v>316.9281030050443</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001356</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K17" t="n">
         <v>512.3249274228018</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M17" t="n">
         <v>1131.58869045549</v>
@@ -5530,37 +5530,37 @@
         <v>1463.013992431967</v>
       </c>
       <c r="O17" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P17" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q17" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R17" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T17" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U17" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V17" t="n">
-        <v>1997.710627381563</v>
+        <v>1580.208008741915</v>
       </c>
       <c r="W17" t="n">
-        <v>1997.710627381563</v>
+        <v>1580.208008741915</v>
       </c>
       <c r="X17" t="n">
-        <v>1578.568163960874</v>
+        <v>1580.208008741915</v>
       </c>
       <c r="Y17" t="n">
-        <v>1170.282040260528</v>
+        <v>1580.208008741915</v>
       </c>
     </row>
     <row r="18">
@@ -5573,43 +5573,43 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E18" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043082</v>
       </c>
       <c r="J18" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668979</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M18" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O18" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P18" t="n">
         <v>1488.088567599445</v>
@@ -5649,58 +5649,58 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>471.655226289377</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="C19" t="n">
-        <v>299.093514772602</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="D19" t="n">
-        <v>133.2155219741246</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="E19" t="n">
-        <v>110.3018381127067</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="F19" t="n">
-        <v>110.3018381127067</v>
+        <v>407.3870791208724</v>
       </c>
       <c r="G19" t="n">
-        <v>110.3018381127067</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H19" t="n">
         <v>110.3018381127067</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J19" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K19" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L19" t="n">
-        <v>688.1212571728194</v>
+        <v>744.9929992049549</v>
       </c>
       <c r="M19" t="n">
-        <v>818.7256495113488</v>
+        <v>1329.174074623269</v>
       </c>
       <c r="N19" t="n">
-        <v>1120.185357954413</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O19" t="n">
-        <v>1657.620488527957</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P19" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S19" t="n">
-        <v>2215.901038951972</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T19" t="n">
         <v>1973.653814855378</v>
@@ -5709,16 +5709,16 @@
         <v>1695.267182904121</v>
       </c>
       <c r="V19" t="n">
-        <v>1408.311674774552</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W19" t="n">
         <v>1136.285270360843</v>
       </c>
       <c r="X19" t="n">
-        <v>890.8935156942559</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y19" t="n">
-        <v>663.4738450083642</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>743.9824697756193</v>
+        <v>1346.991198798029</v>
       </c>
       <c r="C20" t="n">
-        <v>743.9824697756193</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="D20" t="n">
-        <v>743.9824697756193</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E20" t="n">
-        <v>743.9824697756193</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F20" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G20" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435802</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867019</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M20" t="n">
         <v>1131.588690455489</v>
@@ -5776,28 +5776,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R20" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="V20" t="n">
-        <v>1997.710627381563</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="W20" t="n">
-        <v>1997.710627381563</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="X20" t="n">
-        <v>1578.568163960874</v>
+        <v>2181.576892983283</v>
       </c>
       <c r="Y20" t="n">
-        <v>1170.282040260527</v>
+        <v>1773.290769282936</v>
       </c>
     </row>
     <row r="21">
@@ -5810,7 +5810,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D21" t="n">
         <v>341.0245550495863</v>
@@ -5822,25 +5822,25 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
-        <v>79.14920158235849</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043082</v>
       </c>
       <c r="J21" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668979</v>
       </c>
       <c r="K21" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L21" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960904</v>
       </c>
       <c r="M21" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987876</v>
       </c>
       <c r="N21" t="n">
         <v>1061.861364220108</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>713.9024503859694</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="C22" t="n">
-        <v>691.8936627556226</v>
+        <v>443.520053268366</v>
       </c>
       <c r="D22" t="n">
-        <v>526.0156699571453</v>
+        <v>443.520053268366</v>
       </c>
       <c r="E22" t="n">
-        <v>356.2576662078826</v>
+        <v>273.7620495191033</v>
       </c>
       <c r="F22" t="n">
-        <v>179.5506121696388</v>
+        <v>97.0549954808595</v>
       </c>
       <c r="G22" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H22" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J22" t="n">
-        <v>106.1122152511379</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K22" t="n">
         <v>202.912315818696</v>
       </c>
       <c r="L22" t="n">
-        <v>326.783117436994</v>
+        <v>744.9929992049549</v>
       </c>
       <c r="M22" t="n">
-        <v>910.9641928553087</v>
+        <v>1329.174074623269</v>
       </c>
       <c r="N22" t="n">
-        <v>1467.692251924755</v>
+        <v>1898.931789584804</v>
       </c>
       <c r="O22" t="n">
-        <v>2005.127382498298</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P22" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R22" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S22" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T22" t="n">
-        <v>2215.901038951971</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U22" t="n">
-        <v>1937.514407000714</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V22" t="n">
-        <v>1650.558898871144</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W22" t="n">
-        <v>1378.532494457436</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X22" t="n">
-        <v>1133.140739790848</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y22" t="n">
-        <v>905.7210691049565</v>
+        <v>807.9003835041283</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1356.706853909659</v>
+        <v>1598.550537385476</v>
       </c>
       <c r="C23" t="n">
-        <v>918.5643810930818</v>
+        <v>1598.550537385476</v>
       </c>
       <c r="D23" t="n">
-        <v>482.6545962675263</v>
+        <v>1578.991262064545</v>
       </c>
       <c r="E23" t="n">
-        <v>48.87985142582146</v>
+        <v>1145.21651722284</v>
       </c>
       <c r="F23" t="n">
-        <v>48.87985142582146</v>
+        <v>717.3490876320474</v>
       </c>
       <c r="G23" t="n">
-        <v>48.87985142582146</v>
+        <v>317.9135602452851</v>
       </c>
       <c r="H23" t="n">
         <v>48.87985142582146</v>
@@ -5989,13 +5989,13 @@
         <v>122.6176114159378</v>
       </c>
       <c r="J23" t="n">
-        <v>285.8514025294307</v>
+        <v>285.8514025294304</v>
       </c>
       <c r="K23" t="n">
-        <v>530.4965414133957</v>
+        <v>530.4965414133954</v>
       </c>
       <c r="L23" t="n">
-        <v>834.0004692019343</v>
+        <v>834.000469201934</v>
       </c>
       <c r="M23" t="n">
         <v>1171.707067812895</v>
@@ -6016,25 +6016,25 @@
         <v>2443.992571291073</v>
       </c>
       <c r="S23" t="n">
-        <v>2405.05669964644</v>
+        <v>2443.992571291073</v>
       </c>
       <c r="T23" t="n">
-        <v>2193.579458235589</v>
+        <v>2443.992571291073</v>
       </c>
       <c r="U23" t="n">
-        <v>2193.579458235589</v>
+        <v>2443.992571291073</v>
       </c>
       <c r="V23" t="n">
-        <v>2180.704771919314</v>
+        <v>2443.992571291073</v>
       </c>
       <c r="W23" t="n">
-        <v>1775.849317330348</v>
+        <v>2443.992571291073</v>
       </c>
       <c r="X23" t="n">
-        <v>1356.706853909659</v>
+        <v>2024.850107870383</v>
       </c>
       <c r="Y23" t="n">
-        <v>1356.706853909659</v>
+        <v>2024.850107870383</v>
       </c>
     </row>
     <row r="24">
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>555.9756286450968</v>
+        <v>864.6938740819904</v>
       </c>
       <c r="C25" t="n">
-        <v>383.4139171283217</v>
+        <v>692.1321625652154</v>
       </c>
       <c r="D25" t="n">
-        <v>383.4139171283217</v>
+        <v>692.1321625652154</v>
       </c>
       <c r="E25" t="n">
-        <v>345.6671047777089</v>
+        <v>522.3741588159527</v>
       </c>
       <c r="F25" t="n">
         <v>345.6671047777089</v>
@@ -6147,25 +6147,25 @@
         <v>48.87985142582146</v>
       </c>
       <c r="J25" t="n">
-        <v>109.8731371388674</v>
+        <v>196.4528223035573</v>
       </c>
       <c r="K25" t="n">
-        <v>210.1038419624147</v>
+        <v>571.4419816982402</v>
       </c>
       <c r="L25" t="n">
-        <v>539.0117042834557</v>
+        <v>885.2400878322076</v>
       </c>
       <c r="M25" t="n">
-        <v>1133.728595194606</v>
+        <v>1479.956978743357</v>
       </c>
       <c r="N25" t="n">
-        <v>1708.004883038852</v>
+        <v>1611.97446342996</v>
       </c>
       <c r="O25" t="n">
-        <v>2249.613647021794</v>
+        <v>1733.91397818712</v>
       </c>
       <c r="P25" t="n">
-        <v>2353.95396759867</v>
+        <v>2185.761192734338</v>
       </c>
       <c r="Q25" t="n">
         <v>2426.193797186283</v>
@@ -6186,13 +6186,13 @@
         <v>1492.632077130272</v>
       </c>
       <c r="W25" t="n">
-        <v>1220.605672716563</v>
+        <v>1492.632077130272</v>
       </c>
       <c r="X25" t="n">
-        <v>975.2139180499757</v>
+        <v>1283.932163486869</v>
       </c>
       <c r="Y25" t="n">
-        <v>747.794247364084</v>
+        <v>1056.512492800977</v>
       </c>
     </row>
     <row r="26">
@@ -6202,31 +6202,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1179.555734677782</v>
+        <v>1568.59455692747</v>
       </c>
       <c r="C26" t="n">
-        <v>1179.555734677782</v>
+        <v>1568.59455692747</v>
       </c>
       <c r="D26" t="n">
-        <v>1179.555734677782</v>
+        <v>1568.59455692747</v>
       </c>
       <c r="E26" t="n">
-        <v>745.7809898360774</v>
+        <v>1134.819812085765</v>
       </c>
       <c r="F26" t="n">
-        <v>317.9135602452851</v>
+        <v>706.9523824949731</v>
       </c>
       <c r="G26" t="n">
-        <v>317.9135602452851</v>
+        <v>307.5168551082108</v>
       </c>
       <c r="H26" t="n">
         <v>48.87985142582146</v>
       </c>
       <c r="I26" t="n">
-        <v>122.6176114159378</v>
+        <v>122.617611415938</v>
       </c>
       <c r="J26" t="n">
-        <v>285.8514025294304</v>
+        <v>285.8514025294305</v>
       </c>
       <c r="K26" t="n">
         <v>530.4965414133954</v>
@@ -6256,22 +6256,22 @@
         <v>2443.992571291073</v>
       </c>
       <c r="T26" t="n">
-        <v>2376.75837892921</v>
+        <v>2232.515329880222</v>
       </c>
       <c r="U26" t="n">
-        <v>2376.75837892921</v>
+        <v>1973.450011516437</v>
       </c>
       <c r="V26" t="n">
-        <v>2014.141428863037</v>
+        <v>1973.450011516437</v>
       </c>
       <c r="W26" t="n">
-        <v>2014.141428863037</v>
+        <v>1568.59455692747</v>
       </c>
       <c r="X26" t="n">
-        <v>2014.141428863037</v>
+        <v>1568.59455692747</v>
       </c>
       <c r="Y26" t="n">
-        <v>1605.85530516269</v>
+        <v>1568.59455692747</v>
       </c>
     </row>
     <row r="27">
@@ -6308,16 +6308,16 @@
         <v>181.5301595233808</v>
       </c>
       <c r="K27" t="n">
-        <v>288.7508436324146</v>
+        <v>347.6962101248521</v>
       </c>
       <c r="L27" t="n">
-        <v>512.1816048303893</v>
+        <v>571.1269713228269</v>
       </c>
       <c r="M27" t="n">
-        <v>772.9147646002509</v>
+        <v>831.8601310926884</v>
       </c>
       <c r="N27" t="n">
-        <v>1040.54875527349</v>
+        <v>1099.494121765928</v>
       </c>
       <c r="O27" t="n">
         <v>1285.381570195347</v>
@@ -6360,10 +6360,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1092.761139503991</v>
+        <v>754.3214351887389</v>
       </c>
       <c r="C28" t="n">
-        <v>920.1994279872162</v>
+        <v>754.3214351887389</v>
       </c>
       <c r="D28" t="n">
         <v>754.3214351887389</v>
@@ -6384,22 +6384,22 @@
         <v>48.87985142582146</v>
       </c>
       <c r="J28" t="n">
-        <v>109.8731371388674</v>
+        <v>196.4528223035573</v>
       </c>
       <c r="K28" t="n">
-        <v>484.8622965335504</v>
+        <v>571.4419816982402</v>
       </c>
       <c r="L28" t="n">
-        <v>613.123090483808</v>
+        <v>1117.912657416459</v>
       </c>
       <c r="M28" t="n">
-        <v>748.3561142140449</v>
+        <v>1253.145681146696</v>
       </c>
       <c r="N28" t="n">
-        <v>1322.632402058292</v>
+        <v>1385.163165833298</v>
       </c>
       <c r="O28" t="n">
-        <v>1864.241166041234</v>
+        <v>1733.91397818712</v>
       </c>
       <c r="P28" t="n">
         <v>2185.761192734338</v>
@@ -6411,25 +6411,25 @@
         <v>2443.992571291073</v>
       </c>
       <c r="S28" t="n">
-        <v>2443.992571291073</v>
+        <v>2300.09107170807</v>
       </c>
       <c r="T28" t="n">
-        <v>2443.992571291073</v>
+        <v>2057.972573896817</v>
       </c>
       <c r="U28" t="n">
-        <v>2165.607582654096</v>
+        <v>1779.587585259841</v>
       </c>
       <c r="V28" t="n">
-        <v>1878.652074524527</v>
+        <v>1492.632077130272</v>
       </c>
       <c r="W28" t="n">
-        <v>1606.625670110818</v>
+        <v>1220.605672716563</v>
       </c>
       <c r="X28" t="n">
-        <v>1511.99942890887</v>
+        <v>975.2139180499757</v>
       </c>
       <c r="Y28" t="n">
-        <v>1284.579758222978</v>
+        <v>754.3214351887389</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>448.3153788125837</v>
+        <v>1559.614665740843</v>
       </c>
       <c r="C29" t="n">
-        <v>448.3153788125837</v>
+        <v>1121.472192924266</v>
       </c>
       <c r="D29" t="n">
-        <v>448.3153788125837</v>
+        <v>685.5624080987104</v>
       </c>
       <c r="E29" t="n">
-        <v>448.3153788125837</v>
+        <v>251.7876632570056</v>
       </c>
       <c r="F29" t="n">
-        <v>448.3153788125837</v>
+        <v>48.87985142582144</v>
       </c>
       <c r="G29" t="n">
-        <v>48.87985142582146</v>
+        <v>48.87985142582144</v>
       </c>
       <c r="H29" t="n">
-        <v>48.87985142582146</v>
+        <v>48.87985142582144</v>
       </c>
       <c r="I29" t="n">
-        <v>122.6176114159378</v>
+        <v>122.6176114159376</v>
       </c>
       <c r="J29" t="n">
-        <v>285.8514025294307</v>
+        <v>285.8514025294302</v>
       </c>
       <c r="K29" t="n">
-        <v>530.4965414133957</v>
+        <v>530.4965414133952</v>
       </c>
       <c r="L29" t="n">
-        <v>834.0004692019343</v>
+        <v>834.0004692019338</v>
       </c>
       <c r="M29" t="n">
-        <v>1171.707067812896</v>
+        <v>1171.707067812895</v>
       </c>
       <c r="N29" t="n">
-        <v>1514.878112250761</v>
+        <v>1514.87811225076</v>
       </c>
       <c r="O29" t="n">
-        <v>1838.924798328299</v>
+        <v>1838.924798328298</v>
       </c>
       <c r="P29" t="n">
         <v>2115.491147810431</v>
       </c>
       <c r="Q29" t="n">
-        <v>2323.180958383278</v>
+        <v>2323.180958383277</v>
       </c>
       <c r="R29" t="n">
-        <v>2443.992571291073</v>
+        <v>2443.992571291072</v>
       </c>
       <c r="S29" t="n">
-        <v>2443.992571291073</v>
+        <v>2405.056699646439</v>
       </c>
       <c r="T29" t="n">
-        <v>2443.992571291073</v>
+        <v>2405.056699646439</v>
       </c>
       <c r="U29" t="n">
-        <v>2184.927252927288</v>
+        <v>2405.056699646439</v>
       </c>
       <c r="V29" t="n">
-        <v>1822.310302861114</v>
+        <v>2405.056699646439</v>
       </c>
       <c r="W29" t="n">
-        <v>1417.454848272147</v>
+        <v>2405.056699646439</v>
       </c>
       <c r="X29" t="n">
-        <v>998.312384851458</v>
+        <v>1985.91423622575</v>
       </c>
       <c r="Y29" t="n">
-        <v>874.6149492974915</v>
+        <v>1985.91423622575</v>
       </c>
     </row>
     <row r="30">
@@ -6533,13 +6533,13 @@
         <v>164.8106011213534</v>
       </c>
       <c r="G30" t="n">
-        <v>80.47543658368234</v>
+        <v>80.47543658368232</v>
       </c>
       <c r="H30" t="n">
-        <v>48.87985142582146</v>
+        <v>48.87985142582144</v>
       </c>
       <c r="I30" t="n">
-        <v>84.30923179960394</v>
+        <v>84.30923179960392</v>
       </c>
       <c r="J30" t="n">
         <v>181.5301595233808</v>
@@ -6554,10 +6554,10 @@
         <v>831.8601310926884</v>
       </c>
       <c r="N30" t="n">
-        <v>1040.54875527349</v>
+        <v>1099.494121765928</v>
       </c>
       <c r="O30" t="n">
-        <v>1285.381570195347</v>
+        <v>1344.326936687785</v>
       </c>
       <c r="P30" t="n">
         <v>1481.881489012384</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>694.9358703327277</v>
+        <v>733.7846135285804</v>
       </c>
       <c r="C31" t="n">
-        <v>522.3741588159527</v>
+        <v>561.2229020118053</v>
       </c>
       <c r="D31" t="n">
-        <v>522.3741588159527</v>
+        <v>395.344909213328</v>
       </c>
       <c r="E31" t="n">
-        <v>522.3741588159527</v>
+        <v>225.5869054640652</v>
       </c>
       <c r="F31" t="n">
-        <v>345.6671047777089</v>
+        <v>48.87985142582144</v>
       </c>
       <c r="G31" t="n">
-        <v>180.9560518187113</v>
+        <v>48.87985142582144</v>
       </c>
       <c r="H31" t="n">
-        <v>48.87985142582146</v>
+        <v>48.87985142582144</v>
       </c>
       <c r="I31" t="n">
-        <v>48.87985142582146</v>
+        <v>48.87985142582144</v>
       </c>
       <c r="J31" t="n">
         <v>109.8731371388674</v>
       </c>
       <c r="K31" t="n">
-        <v>210.1038419624147</v>
+        <v>484.8622965335504</v>
       </c>
       <c r="L31" t="n">
-        <v>756.5745176806336</v>
+        <v>1031.332972251769</v>
       </c>
       <c r="M31" t="n">
-        <v>1133.728595194606</v>
+        <v>1166.565995982006</v>
       </c>
       <c r="N31" t="n">
-        <v>1708.004883038852</v>
+        <v>1298.583480668608</v>
       </c>
       <c r="O31" t="n">
-        <v>2249.613647021794</v>
+        <v>1733.91397818712</v>
       </c>
       <c r="P31" t="n">
-        <v>2353.95396759867</v>
+        <v>2185.761192734337</v>
       </c>
       <c r="Q31" t="n">
         <v>2426.193797186283</v>
       </c>
       <c r="R31" t="n">
-        <v>2443.992571291073</v>
+        <v>2443.992571291072</v>
       </c>
       <c r="S31" t="n">
-        <v>2300.09107170807</v>
+        <v>2443.992571291072</v>
       </c>
       <c r="T31" t="n">
-        <v>2196.932815584448</v>
+        <v>2235.781558780301</v>
       </c>
       <c r="U31" t="n">
-        <v>1918.547826947472</v>
+        <v>1957.396570143325</v>
       </c>
       <c r="V31" t="n">
-        <v>1631.592318817903</v>
+        <v>1670.441062013755</v>
       </c>
       <c r="W31" t="n">
-        <v>1359.565914404194</v>
+        <v>1398.414657600047</v>
       </c>
       <c r="X31" t="n">
-        <v>1114.174159737607</v>
+        <v>1153.022902933459</v>
       </c>
       <c r="Y31" t="n">
-        <v>886.7544890517149</v>
+        <v>925.6032322475676</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1784.574283500451</v>
+        <v>1587.033617299308</v>
       </c>
       <c r="C32" t="n">
-        <v>1346.431810683874</v>
+        <v>1587.033617299308</v>
       </c>
       <c r="D32" t="n">
-        <v>910.5220258583186</v>
+        <v>1151.123832473752</v>
       </c>
       <c r="E32" t="n">
-        <v>476.7472810166137</v>
+        <v>717.3490876320474</v>
       </c>
       <c r="F32" t="n">
-        <v>48.87985142582146</v>
+        <v>717.3490876320474</v>
       </c>
       <c r="G32" t="n">
-        <v>48.87985142582146</v>
+        <v>317.9135602452851</v>
       </c>
       <c r="H32" t="n">
         <v>48.87985142582146</v>
@@ -6727,25 +6727,25 @@
         <v>2443.992571291073</v>
       </c>
       <c r="S32" t="n">
-        <v>2405.05669964644</v>
+        <v>2443.992571291073</v>
       </c>
       <c r="T32" t="n">
-        <v>2405.05669964644</v>
+        <v>2272.398506148001</v>
       </c>
       <c r="U32" t="n">
-        <v>2189.429738089418</v>
+        <v>2013.333187784216</v>
       </c>
       <c r="V32" t="n">
-        <v>2189.429738089418</v>
+        <v>2013.333187784216</v>
       </c>
       <c r="W32" t="n">
-        <v>1784.574283500451</v>
+        <v>2013.333187784216</v>
       </c>
       <c r="X32" t="n">
-        <v>1784.574283500451</v>
+        <v>2013.333187784216</v>
       </c>
       <c r="Y32" t="n">
-        <v>1784.574283500451</v>
+        <v>2013.333187784216</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1310.72746418458</v>
+        <v>543.8616041950426</v>
       </c>
       <c r="C33" t="n">
-        <v>1204.271003021223</v>
+        <v>437.4051430316849</v>
       </c>
       <c r="D33" t="n">
-        <v>1109.180714167776</v>
+        <v>342.3148541782381</v>
       </c>
       <c r="E33" t="n">
-        <v>1015.06029949473</v>
+        <v>248.1944395051918</v>
       </c>
       <c r="F33" t="n">
-        <v>931.6764611108913</v>
+        <v>164.8106011213534</v>
       </c>
       <c r="G33" t="n">
-        <v>847.3412965732202</v>
+        <v>80.47543658368234</v>
       </c>
       <c r="H33" t="n">
-        <v>815.7457114153593</v>
+        <v>48.87985142582146</v>
       </c>
       <c r="I33" t="n">
-        <v>851.1750917891418</v>
+        <v>84.30923179960394</v>
       </c>
       <c r="J33" t="n">
-        <v>948.3960195129187</v>
+        <v>122.5847930309432</v>
       </c>
       <c r="K33" t="n">
-        <v>1055.616703621952</v>
+        <v>288.7508436324146</v>
       </c>
       <c r="L33" t="n">
-        <v>1279.047464819927</v>
+        <v>512.1816048303893</v>
       </c>
       <c r="M33" t="n">
-        <v>1539.780624589789</v>
+        <v>772.9147646002509</v>
       </c>
       <c r="N33" t="n">
-        <v>1807.414615263028</v>
+        <v>1040.54875527349</v>
       </c>
       <c r="O33" t="n">
-        <v>2052.247430184885</v>
+        <v>1285.381570195347</v>
       </c>
       <c r="P33" t="n">
-        <v>2248.747349001922</v>
+        <v>1481.881489012384</v>
       </c>
       <c r="Q33" t="n">
-        <v>2380.102340899829</v>
+        <v>1613.236480910291</v>
       </c>
       <c r="R33" t="n">
-        <v>2443.992571291073</v>
+        <v>1677.126711301534</v>
       </c>
       <c r="S33" t="n">
-        <v>2400.039033764342</v>
+        <v>1633.173173774804</v>
       </c>
       <c r="T33" t="n">
-        <v>2274.092325425019</v>
+        <v>1507.226465435481</v>
       </c>
       <c r="U33" t="n">
-        <v>2097.82485245105</v>
+        <v>1330.958992461512</v>
       </c>
       <c r="V33" t="n">
-        <v>1898.707334513049</v>
+        <v>1131.841474523511</v>
       </c>
       <c r="W33" t="n">
-        <v>1713.384580246243</v>
+        <v>946.5187202567049</v>
       </c>
       <c r="X33" t="n">
-        <v>1558.517144485123</v>
+        <v>791.6512844955849</v>
       </c>
       <c r="Y33" t="n">
-        <v>1432.031365264344</v>
+        <v>665.1655052748057</v>
       </c>
     </row>
     <row r="34">
@@ -6834,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>699.8771282280998</v>
+        <v>733.7846135285804</v>
       </c>
       <c r="C34" t="n">
         <v>561.2229020118053</v>
@@ -6861,16 +6861,16 @@
         <v>109.8731371388674</v>
       </c>
       <c r="K34" t="n">
-        <v>210.1038419624147</v>
+        <v>484.8622965335504</v>
       </c>
       <c r="L34" t="n">
-        <v>756.5745176806336</v>
+        <v>925.054705787339</v>
       </c>
       <c r="M34" t="n">
-        <v>891.8075414108705</v>
+        <v>1060.287729517576</v>
       </c>
       <c r="N34" t="n">
-        <v>1466.083829255117</v>
+        <v>1192.305214204178</v>
       </c>
       <c r="O34" t="n">
         <v>1733.91397818712</v>
@@ -6891,19 +6891,19 @@
         <v>2201.87407347982</v>
       </c>
       <c r="U34" t="n">
-        <v>1923.489084842844</v>
+        <v>1957.396570143325</v>
       </c>
       <c r="V34" t="n">
-        <v>1636.533576713275</v>
+        <v>1670.441062013755</v>
       </c>
       <c r="W34" t="n">
-        <v>1364.507172299566</v>
+        <v>1398.414657600047</v>
       </c>
       <c r="X34" t="n">
-        <v>1119.115417632979</v>
+        <v>1153.022902933459</v>
       </c>
       <c r="Y34" t="n">
-        <v>891.6957469470869</v>
+        <v>925.6032322475676</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>746.4730874515288</v>
+        <v>1625.740562729122</v>
       </c>
       <c r="C35" t="n">
-        <v>717.3490876320474</v>
+        <v>1187.598089912545</v>
       </c>
       <c r="D35" t="n">
-        <v>717.3490876320474</v>
+        <v>751.6883050869899</v>
       </c>
       <c r="E35" t="n">
-        <v>717.3490876320474</v>
+        <v>317.9135602452851</v>
       </c>
       <c r="F35" t="n">
-        <v>717.3490876320474</v>
+        <v>317.9135602452851</v>
       </c>
       <c r="G35" t="n">
         <v>317.9135602452851</v>
@@ -6964,25 +6964,25 @@
         <v>2443.992571291072</v>
       </c>
       <c r="S35" t="n">
-        <v>2405.056699646439</v>
+        <v>2443.992571291072</v>
       </c>
       <c r="T35" t="n">
-        <v>2405.056699646439</v>
+        <v>2232.515329880222</v>
       </c>
       <c r="U35" t="n">
-        <v>2405.056699646439</v>
+        <v>1973.450011516436</v>
       </c>
       <c r="V35" t="n">
-        <v>2405.056699646439</v>
+        <v>1973.450011516436</v>
       </c>
       <c r="W35" t="n">
-        <v>2000.201245057473</v>
+        <v>1625.740562729122</v>
       </c>
       <c r="X35" t="n">
-        <v>1581.058781636783</v>
+        <v>1625.740562729122</v>
       </c>
       <c r="Y35" t="n">
-        <v>1172.772657936437</v>
+        <v>1625.740562729122</v>
       </c>
     </row>
     <row r="36">
@@ -7071,46 +7071,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>699.8771282280993</v>
+        <v>689.1537598832264</v>
       </c>
       <c r="C37" t="n">
-        <v>527.3154167113242</v>
+        <v>516.5920483664513</v>
       </c>
       <c r="D37" t="n">
-        <v>527.3154167113242</v>
+        <v>350.714055567974</v>
       </c>
       <c r="E37" t="n">
-        <v>357.5574129620615</v>
+        <v>180.9560518187113</v>
       </c>
       <c r="F37" t="n">
-        <v>180.8503589238177</v>
+        <v>180.9560518187113</v>
       </c>
       <c r="G37" t="n">
-        <v>111.069124049345</v>
+        <v>180.9560518187113</v>
       </c>
       <c r="H37" t="n">
-        <v>111.069124049345</v>
+        <v>48.87985142582144</v>
       </c>
       <c r="I37" t="n">
         <v>48.87985142582144</v>
       </c>
       <c r="J37" t="n">
-        <v>196.4528223035573</v>
+        <v>109.8731371388674</v>
       </c>
       <c r="K37" t="n">
-        <v>571.4419816982402</v>
+        <v>484.8622965335504</v>
       </c>
       <c r="L37" t="n">
-        <v>699.702775648498</v>
+        <v>613.123090483808</v>
       </c>
       <c r="M37" t="n">
-        <v>1294.419666559648</v>
+        <v>1060.287729517575</v>
       </c>
       <c r="N37" t="n">
-        <v>1868.695954403894</v>
+        <v>1192.305214204177</v>
       </c>
       <c r="O37" t="n">
-        <v>1990.635469161055</v>
+        <v>1733.91397818712</v>
       </c>
       <c r="P37" t="n">
         <v>2185.761192734337</v>
@@ -7122,25 +7122,25 @@
         <v>2443.992571291072</v>
       </c>
       <c r="S37" t="n">
-        <v>2443.992571291072</v>
+        <v>2300.091071708069</v>
       </c>
       <c r="T37" t="n">
-        <v>2201.87407347982</v>
+        <v>2057.972573896817</v>
       </c>
       <c r="U37" t="n">
-        <v>1923.489084842844</v>
+        <v>1779.587585259841</v>
       </c>
       <c r="V37" t="n">
-        <v>1636.533576713274</v>
+        <v>1492.632077130271</v>
       </c>
       <c r="W37" t="n">
-        <v>1364.507172299566</v>
+        <v>1353.783803954693</v>
       </c>
       <c r="X37" t="n">
-        <v>1119.115417632978</v>
+        <v>1108.392049288105</v>
       </c>
       <c r="Y37" t="n">
-        <v>891.6957469470865</v>
+        <v>880.9723786022134</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2184.009810887213</v>
+        <v>1163.611066105283</v>
       </c>
       <c r="C38" t="n">
-        <v>1745.867338070636</v>
+        <v>1163.611066105283</v>
       </c>
       <c r="D38" t="n">
-        <v>1309.957553245081</v>
+        <v>727.7012812797279</v>
       </c>
       <c r="E38" t="n">
-        <v>876.1828084033759</v>
+        <v>727.7012812797279</v>
       </c>
       <c r="F38" t="n">
-        <v>448.3153788125837</v>
+        <v>717.3490876320474</v>
       </c>
       <c r="G38" t="n">
-        <v>48.87985142582144</v>
+        <v>317.9135602452851</v>
       </c>
       <c r="H38" t="n">
         <v>48.87985142582144</v>
@@ -7201,25 +7201,25 @@
         <v>2443.992571291072</v>
       </c>
       <c r="S38" t="n">
-        <v>2443.992571291072</v>
+        <v>2405.056699646439</v>
       </c>
       <c r="T38" t="n">
-        <v>2443.992571291072</v>
+        <v>2193.579458235589</v>
       </c>
       <c r="U38" t="n">
-        <v>2443.992571291072</v>
+        <v>1934.514139871804</v>
       </c>
       <c r="V38" t="n">
-        <v>2443.992571291072</v>
+        <v>1571.89718980563</v>
       </c>
       <c r="W38" t="n">
-        <v>2443.992571291072</v>
+        <v>1571.89718980563</v>
       </c>
       <c r="X38" t="n">
-        <v>2443.992571291072</v>
+        <v>1571.89718980563</v>
       </c>
       <c r="Y38" t="n">
-        <v>2184.009810887213</v>
+        <v>1163.611066105283</v>
       </c>
     </row>
     <row r="39">
@@ -7271,7 +7271,7 @@
         <v>1344.326936687785</v>
       </c>
       <c r="P39" t="n">
-        <v>1540.826855504822</v>
+        <v>1481.881489012384</v>
       </c>
       <c r="Q39" t="n">
         <v>1613.236480910291</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1092.761139503991</v>
+        <v>580.4180889180075</v>
       </c>
       <c r="C40" t="n">
-        <v>920.1994279872162</v>
+        <v>407.8563774012324</v>
       </c>
       <c r="D40" t="n">
-        <v>754.3214351887389</v>
+        <v>407.8563774012324</v>
       </c>
       <c r="E40" t="n">
-        <v>584.5634314394762</v>
+        <v>407.8563774012324</v>
       </c>
       <c r="F40" t="n">
         <v>407.8563774012324</v>
@@ -7341,10 +7341,10 @@
         <v>699.702775648498</v>
       </c>
       <c r="M40" t="n">
-        <v>1294.419666559648</v>
+        <v>834.9357993787348</v>
       </c>
       <c r="N40" t="n">
-        <v>1426.43715124625</v>
+        <v>1192.305214204177</v>
       </c>
       <c r="O40" t="n">
         <v>1733.91397818712</v>
@@ -7359,25 +7359,25 @@
         <v>2443.992571291072</v>
       </c>
       <c r="S40" t="n">
-        <v>2443.992571291072</v>
+        <v>2300.091071708069</v>
       </c>
       <c r="T40" t="n">
-        <v>2201.87407347982</v>
+        <v>2057.972573896817</v>
       </c>
       <c r="U40" t="n">
-        <v>2201.87407347982</v>
+        <v>1779.587585259841</v>
       </c>
       <c r="V40" t="n">
-        <v>1914.91856535025</v>
+        <v>1517.074537403182</v>
       </c>
       <c r="W40" t="n">
-        <v>1757.391183575458</v>
+        <v>1245.048132989474</v>
       </c>
       <c r="X40" t="n">
-        <v>1511.99942890887</v>
+        <v>999.6563783228864</v>
       </c>
       <c r="Y40" t="n">
-        <v>1284.579758222978</v>
+        <v>772.2367076369947</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>922.9321090679537</v>
+        <v>912.6570658421692</v>
       </c>
       <c r="C41" t="n">
-        <v>484.789636251377</v>
+        <v>912.6570658421692</v>
       </c>
       <c r="D41" t="n">
-        <v>48.87985142582146</v>
+        <v>476.7472810166137</v>
       </c>
       <c r="E41" t="n">
-        <v>48.87985142582146</v>
+        <v>476.7472810166137</v>
       </c>
       <c r="F41" t="n">
         <v>48.87985142582146</v>
@@ -7438,25 +7438,25 @@
         <v>2443.992571291073</v>
       </c>
       <c r="S41" t="n">
-        <v>2443.992571291073</v>
+        <v>2405.05669964644</v>
       </c>
       <c r="T41" t="n">
-        <v>2232.515329880222</v>
+        <v>2193.579458235589</v>
       </c>
       <c r="U41" t="n">
-        <v>2232.515329880222</v>
+        <v>2193.579458235589</v>
       </c>
       <c r="V41" t="n">
-        <v>2176.660266673897</v>
+        <v>2193.579458235589</v>
       </c>
       <c r="W41" t="n">
-        <v>2176.660266673897</v>
+        <v>1788.724003646623</v>
       </c>
       <c r="X41" t="n">
-        <v>1757.517803253208</v>
+        <v>1369.581540225933</v>
       </c>
       <c r="Y41" t="n">
-        <v>1349.231679552861</v>
+        <v>961.2954165255866</v>
       </c>
     </row>
     <row r="42">
@@ -7499,16 +7499,16 @@
         <v>571.1269713228269</v>
       </c>
       <c r="M42" t="n">
-        <v>772.9147646002509</v>
+        <v>831.8601310926884</v>
       </c>
       <c r="N42" t="n">
-        <v>1040.54875527349</v>
+        <v>1099.494121765928</v>
       </c>
       <c r="O42" t="n">
-        <v>1285.381570195347</v>
+        <v>1344.326936687785</v>
       </c>
       <c r="P42" t="n">
-        <v>1481.881489012384</v>
+        <v>1540.826855504822</v>
       </c>
       <c r="Q42" t="n">
         <v>1613.236480910291</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>864.6938740819904</v>
+        <v>555.9756286450968</v>
       </c>
       <c r="C43" t="n">
-        <v>692.1321625652154</v>
+        <v>555.9756286450968</v>
       </c>
       <c r="D43" t="n">
-        <v>692.1321625652154</v>
+        <v>555.9756286450968</v>
       </c>
       <c r="E43" t="n">
-        <v>522.3741588159527</v>
+        <v>386.217624895834</v>
       </c>
       <c r="F43" t="n">
-        <v>345.6671047777089</v>
+        <v>386.217624895834</v>
       </c>
       <c r="G43" t="n">
-        <v>180.9560518187113</v>
+        <v>243.1453244422349</v>
       </c>
       <c r="H43" t="n">
-        <v>48.87985142582146</v>
+        <v>111.069124049345</v>
       </c>
       <c r="I43" t="n">
         <v>48.87985142582146</v>
@@ -7572,22 +7572,22 @@
         <v>109.8731371388674</v>
       </c>
       <c r="K43" t="n">
-        <v>484.8622965335504</v>
+        <v>210.1038419624147</v>
       </c>
       <c r="L43" t="n">
-        <v>613.123090483808</v>
+        <v>539.0117042834557</v>
       </c>
       <c r="M43" t="n">
-        <v>748.3561142140449</v>
+        <v>1133.728595194606</v>
       </c>
       <c r="N43" t="n">
-        <v>1322.632402058292</v>
+        <v>1708.004883038852</v>
       </c>
       <c r="O43" t="n">
-        <v>1733.91397818712</v>
+        <v>2249.613647021794</v>
       </c>
       <c r="P43" t="n">
-        <v>2185.761192734338</v>
+        <v>2353.95396759867</v>
       </c>
       <c r="Q43" t="n">
         <v>2426.193797186283</v>
@@ -7596,25 +7596,25 @@
         <v>2443.992571291073</v>
       </c>
       <c r="S43" t="n">
-        <v>2321.853809015393</v>
+        <v>2300.09107170807</v>
       </c>
       <c r="T43" t="n">
-        <v>2079.735311204141</v>
+        <v>2057.972573896817</v>
       </c>
       <c r="U43" t="n">
-        <v>1801.350322567165</v>
+        <v>1779.587585259841</v>
       </c>
       <c r="V43" t="n">
-        <v>1801.350322567165</v>
+        <v>1492.632077130272</v>
       </c>
       <c r="W43" t="n">
-        <v>1529.323918153457</v>
+        <v>1220.605672716563</v>
       </c>
       <c r="X43" t="n">
-        <v>1283.932163486869</v>
+        <v>975.2139180499757</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.512492800977</v>
+        <v>747.794247364084</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1783.374431216481</v>
+        <v>1378.518976627515</v>
       </c>
       <c r="C44" t="n">
-        <v>1745.867338070636</v>
+        <v>1378.518976627515</v>
       </c>
       <c r="D44" t="n">
-        <v>1309.957553245081</v>
+        <v>1378.518976627515</v>
       </c>
       <c r="E44" t="n">
-        <v>876.1828084033759</v>
+        <v>944.7442317858097</v>
       </c>
       <c r="F44" t="n">
-        <v>448.3153788125837</v>
+        <v>516.8768021950175</v>
       </c>
       <c r="G44" t="n">
-        <v>48.87985142582146</v>
+        <v>317.9135602452851</v>
       </c>
       <c r="H44" t="n">
         <v>48.87985142582146</v>
@@ -7687,13 +7687,13 @@
         <v>1783.374431216481</v>
       </c>
       <c r="W44" t="n">
-        <v>1783.374431216481</v>
+        <v>1378.518976627515</v>
       </c>
       <c r="X44" t="n">
-        <v>1783.374431216481</v>
+        <v>1378.518976627515</v>
       </c>
       <c r="Y44" t="n">
-        <v>1783.374431216481</v>
+        <v>1378.518976627515</v>
       </c>
     </row>
     <row r="45">
@@ -7724,25 +7724,25 @@
         <v>48.87985142582146</v>
       </c>
       <c r="I45" t="n">
-        <v>48.87985142582146</v>
+        <v>84.30923179960394</v>
       </c>
       <c r="J45" t="n">
-        <v>122.5847930309432</v>
+        <v>181.5301595233808</v>
       </c>
       <c r="K45" t="n">
-        <v>288.7508436324146</v>
+        <v>347.6962101248521</v>
       </c>
       <c r="L45" t="n">
-        <v>512.1816048303893</v>
+        <v>571.1269713228269</v>
       </c>
       <c r="M45" t="n">
-        <v>772.9147646002509</v>
+        <v>831.8601310926884</v>
       </c>
       <c r="N45" t="n">
-        <v>1040.54875527349</v>
+        <v>1099.494121765928</v>
       </c>
       <c r="O45" t="n">
-        <v>1285.381570195347</v>
+        <v>1344.326936687785</v>
       </c>
       <c r="P45" t="n">
         <v>1481.881489012384</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>555.9756286450968</v>
+        <v>688.25215161443</v>
       </c>
       <c r="C46" t="n">
-        <v>383.4139171283217</v>
+        <v>688.25215161443</v>
       </c>
       <c r="D46" t="n">
-        <v>357.6631058569551</v>
+        <v>522.3741588159527</v>
       </c>
       <c r="E46" t="n">
-        <v>357.6631058569551</v>
+        <v>522.3741588159527</v>
       </c>
       <c r="F46" t="n">
-        <v>180.9560518187113</v>
+        <v>345.6671047777089</v>
       </c>
       <c r="G46" t="n">
         <v>180.9560518187113</v>
@@ -7809,13 +7809,13 @@
         <v>109.8731371388674</v>
       </c>
       <c r="K46" t="n">
-        <v>210.1038419624147</v>
+        <v>484.8622965335504</v>
       </c>
       <c r="L46" t="n">
-        <v>756.5745176806336</v>
+        <v>925.054705787339</v>
       </c>
       <c r="M46" t="n">
-        <v>891.8075414108705</v>
+        <v>1060.287729517576</v>
       </c>
       <c r="N46" t="n">
         <v>1192.305214204178</v>
@@ -7836,22 +7836,22 @@
         <v>2300.09107170807</v>
       </c>
       <c r="T46" t="n">
-        <v>2057.972573896817</v>
+        <v>2190.24909686615</v>
       </c>
       <c r="U46" t="n">
-        <v>1779.587585259841</v>
+        <v>1911.864108229174</v>
       </c>
       <c r="V46" t="n">
-        <v>1492.632077130272</v>
+        <v>1624.908600099605</v>
       </c>
       <c r="W46" t="n">
-        <v>1220.605672716563</v>
+        <v>1352.882195685896</v>
       </c>
       <c r="X46" t="n">
-        <v>975.2139180499757</v>
+        <v>1107.490441019309</v>
       </c>
       <c r="Y46" t="n">
-        <v>747.794247364084</v>
+        <v>880.0707703334172</v>
       </c>
     </row>
   </sheetData>
@@ -8291,10 +8291,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>3.065385582259228</v>
+        <v>0.8076884687375308</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>2.721517647487969</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.4638205339662722</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -8373,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.923123287322519</v>
+        <v>2.923123287322518</v>
       </c>
       <c r="K7" t="n">
-        <v>2.375249808503934</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -8391,10 +8391,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.375249808503936</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.860536639450494</v>
+        <v>2.860536639450492</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>21.75440028723776</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8540,7 +8540,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>11.14042390876192</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>36.94091896479665</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8613,22 +8613,22 @@
         <v>37.13925100285415</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>34.45295969778793</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>32.53395007869803</v>
       </c>
       <c r="M10" t="n">
-        <v>1.45022363148199</v>
+        <v>0.9116767238302828</v>
       </c>
       <c r="N10" t="n">
-        <v>32.27675768710765</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>34.17160518172662</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>156.7304232042861</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N13" t="n">
-        <v>175.7179764032071</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9090,10 +9090,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>141.468043217344</v>
       </c>
       <c r="M16" t="n">
-        <v>177.1920849464602</v>
+        <v>458.1582657371569</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>458.1582657371567</v>
       </c>
       <c r="N19" t="n">
-        <v>175.7179764032071</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512944</v>
+        <v>158.2045317475397</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9564,22 +9564,22 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>458.1582657371569</v>
+        <v>458.1582657371567</v>
       </c>
       <c r="N22" t="n">
-        <v>433.5647952177337</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512944</v>
+        <v>158.2045317475397</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>202.6738064351346</v>
+        <v>187.4114264481915</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645587</v>
       </c>
       <c r="N25" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10032,25 +10032,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512944</v>
+        <v>229.1023208047086</v>
       </c>
       <c r="P28" t="n">
-        <v>219.3734405214429</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
         <v>169.8916917821538</v>
@@ -10272,25 +10272,25 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>244.3647007916517</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512944</v>
+        <v>316.5565482437889</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10509,19 +10509,19 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>422.4342240080415</v>
+        <v>315.0824397005364</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>147.3642769442852</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
@@ -10743,7 +10743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -10752,16 +10752,16 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645587</v>
+        <v>315.0824397005359</v>
       </c>
       <c r="N37" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>91.70242726909737</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
         <v>169.8916917821538</v>
@@ -10989,13 +10989,13 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>227.6282122614551</v>
       </c>
       <c r="O40" t="n">
-        <v>187.4114264481912</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
         <v>351.0170646165068</v>
@@ -11220,25 +11220,25 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>202.6738064351346</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N43" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>292.2647084562302</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11457,16 +11457,16 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>315.0824397005364</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>170.1820081885915</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>423.9083325512944</v>
@@ -22783,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>18.77402585779841</v>
       </c>
       <c r="C5" t="n">
-        <v>30.49849916615064</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
         <v>28.28813805503963</v>
       </c>
       <c r="E5" t="n">
-        <v>26.5633443025609</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>20.32620637262405</v>
@@ -22846,10 +22846,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>12.88428573883256</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>181.3471411394411</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>62.55555096376503</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>73.92833470389006</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>151.6391547027496</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
         <v>62.46433369811443</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23503,16 +23503,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>100.7591006852504</v>
       </c>
       <c r="H14" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23554,16 +23554,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>230.0512407154688</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>39.72193759730516</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>149.4797657852204</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23715,10 +23715,10 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.8049321920146326</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>92.86763721337957</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>145.3758766889663</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>111.3145178010427</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23971,22 +23971,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>396.3125965993327</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>209.6535390155789</v>
@@ -24028,13 +24028,13 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>278.0495672540247</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>149.047394647564</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0937685836068</v>
+        <v>113.743809091021</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>412.187004409578</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>395.4411721128946</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>266.343371731269</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,19 +24256,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>38.54651292818659</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>209.3624689967422</v>
       </c>
       <c r="U23" t="n">
         <v>256.4746651801473</v>
       </c>
       <c r="V23" t="n">
-        <v>346.2448411123994</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24372,10 +24372,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>130.6910794846634</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24426,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>36.32492261295329</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
         <v>433.7610480884109</v>
@@ -24457,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>395.4411721128946</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>10.29273808570349</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,22 +24496,22 @@
         <v>38.54651292818659</v>
       </c>
       <c r="T26" t="n">
-        <v>142.8006185584984</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4746651801473</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.4624845871731</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>239.69731283314</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>149.2578583299929</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>6.461915946408311</v>
       </c>
     </row>
     <row r="29">
@@ -24682,19 +24682,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>222.710021582012</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.4411721128946</v>
       </c>
       <c r="H29" t="n">
         <v>266.343371731269</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>38.54651292818659</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>209.3624689967422</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4746651801473</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>281.7428012649164</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.0639424294076</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>130.755438388961</v>
       </c>
       <c r="I31" t="n">
         <v>61.56737989728833</v>
@@ -24888,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>142.4624845871731</v>
       </c>
       <c r="T31" t="n">
-        <v>137.5706392707548</v>
+        <v>33.56841044747625</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24928,13 +24928,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>395.4411721128946</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>266.343371731269</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,19 +24967,19 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>38.54651292818659</v>
       </c>
       <c r="T32" t="n">
-        <v>209.3624689967422</v>
+        <v>39.48434450510098</v>
       </c>
       <c r="U32" t="n">
-        <v>43.00397323869532</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
         <v>414.9510387864824</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>33.56841044747583</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>33.56841044747586</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>404.9282882671243</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>395.4411721128946</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>38.54651292818659</v>
       </c>
       <c r="T35" t="n">
-        <v>209.3624689967422</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4746651801473</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>56.57454574363578</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>93.98051990367962</v>
+        <v>163.0639424294076</v>
       </c>
       <c r="H37" t="n">
-        <v>130.755438388961</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>61.56737989728833</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.4624845871731</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>131.8463499257487</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25393,22 +25393,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>413.3400835836806</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>266.343371731269</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>38.54651292818659</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>209.3624689967422</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4746651801473</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
@@ -25459,7 +25459,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>146.8203296635225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25599,19 +25599,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.4624845871731</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6011387506063</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>24.19803567018198</v>
       </c>
       <c r="W40" t="n">
-        <v>113.3540324125268</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>373.8846076034755</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25639,7 +25639,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>395.4411721128946</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>38.54651292818659</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25687,10 +25687,10 @@
         <v>256.4746651801473</v>
       </c>
       <c r="V41" t="n">
-        <v>303.6942679912502</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>21.42236498034441</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>61.56737989728833</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>21.54510993425063</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25867,10 +25867,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>396.6290258740245</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,10 +25879,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>198.4675625826596</v>
       </c>
       <c r="H44" t="n">
-        <v>266.343371731269</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25927,7 +25927,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -26025,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>138.7259097118396</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0639424294076</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>130.9537577396401</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>537649.1013409249</v>
+        <v>537649.1013409247</v>
       </c>
     </row>
     <row r="4">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>337612.3566366165</v>
+        <v>337612.3566366164</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>337612.3566366165</v>
+        <v>337612.3566366164</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>337612.3566366165</v>
+        <v>337612.3566366164</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>347015.5481160532</v>
+        <v>347015.5481160533</v>
       </c>
     </row>
     <row r="11">
@@ -26316,25 +26316,25 @@
         <v>379453.8588450989</v>
       </c>
       <c r="C2" t="n">
-        <v>380184.5424598757</v>
+        <v>380184.5424598758</v>
       </c>
       <c r="D2" t="n">
-        <v>388706.8069205462</v>
+        <v>388706.8069205463</v>
       </c>
       <c r="E2" t="n">
-        <v>228081.4783861852</v>
+        <v>228081.4783861851</v>
       </c>
       <c r="F2" t="n">
-        <v>228081.4783861852</v>
+        <v>228081.478386185</v>
       </c>
       <c r="G2" t="n">
-        <v>228081.4783861852</v>
+        <v>228081.4783861851</v>
       </c>
       <c r="H2" t="n">
         <v>228081.4783861851</v>
       </c>
       <c r="I2" t="n">
-        <v>234358.0029017168</v>
+        <v>234358.0029017167</v>
       </c>
       <c r="J2" t="n">
         <v>234358.0029017167</v>
@@ -26346,10 +26346,10 @@
         <v>234358.0029017167</v>
       </c>
       <c r="M2" t="n">
-        <v>234358.0029017166</v>
+        <v>234358.0029017167</v>
       </c>
       <c r="N2" t="n">
-        <v>234358.0029017166</v>
+        <v>234358.0029017167</v>
       </c>
       <c r="O2" t="n">
         <v>234358.0029017167</v>
@@ -26368,7 +26368,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3478.359671742096</v>
+        <v>3478.359671742095</v>
       </c>
       <c r="D3" t="n">
         <v>37590.3897202509</v>
@@ -26386,13 +26386,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>18012.50673044222</v>
+        <v>18012.50673044238</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>839.675691024283</v>
+        <v>839.6756910242827</v>
       </c>
       <c r="L3" t="n">
         <v>9630.733667017968</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298351.4169171189</v>
+        <v>298351.4169171188</v>
       </c>
       <c r="D4" t="n">
-        <v>294235.7031510526</v>
+        <v>294235.7031510527</v>
       </c>
       <c r="E4" t="n">
-        <v>15620.10484543461</v>
+        <v>15620.1048454346</v>
       </c>
       <c r="F4" t="n">
-        <v>15620.10484543461</v>
+        <v>15620.1048454346</v>
       </c>
       <c r="G4" t="n">
-        <v>15620.10484543461</v>
+        <v>15620.1048454346</v>
       </c>
       <c r="H4" t="n">
         <v>15620.1048454346</v>
@@ -26478,16 +26478,16 @@
         <v>36853.56981021012</v>
       </c>
       <c r="E5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="F5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.0812096378</v>
       </c>
       <c r="G5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.0812096378</v>
       </c>
       <c r="H5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.0812096378</v>
       </c>
       <c r="I5" t="n">
         <v>47683.36020563891</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47095.54253326613</v>
+        <v>47063.63581576444</v>
       </c>
       <c r="C6" t="n">
-        <v>44470.76403716877</v>
+        <v>44441.376918339</v>
       </c>
       <c r="D6" t="n">
-        <v>20027.14423903249</v>
+        <v>20027.14423903255</v>
       </c>
       <c r="E6" t="n">
-        <v>-346075.217224869</v>
+        <v>-346629.097668091</v>
       </c>
       <c r="F6" t="n">
-        <v>166410.2923311127</v>
+        <v>165856.4118878906</v>
       </c>
       <c r="G6" t="n">
-        <v>166410.2923311127</v>
+        <v>165856.4118878907</v>
       </c>
       <c r="H6" t="n">
-        <v>166410.2923311127</v>
+        <v>165856.4118878907</v>
       </c>
       <c r="I6" t="n">
-        <v>152499.7534465514</v>
+        <v>151967.5161913138</v>
       </c>
       <c r="J6" t="n">
-        <v>170512.2601769935</v>
+        <v>169980.0229217562</v>
       </c>
       <c r="K6" t="n">
-        <v>169672.5844859693</v>
+        <v>169140.3472307319</v>
       </c>
       <c r="L6" t="n">
-        <v>160881.5265099756</v>
+        <v>160349.2892547383</v>
       </c>
       <c r="M6" t="n">
-        <v>33757.35579387806</v>
+        <v>33225.11853864083</v>
       </c>
       <c r="N6" t="n">
-        <v>170512.2601769935</v>
+        <v>169980.0229217561</v>
       </c>
       <c r="O6" t="n">
-        <v>170512.2601769935</v>
+        <v>169980.0229217562</v>
       </c>
       <c r="P6" t="n">
-        <v>170512.2601769935</v>
+        <v>169980.0229217561</v>
       </c>
     </row>
   </sheetData>
@@ -26740,22 +26740,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2.662332998740293</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="D3" t="n">
         <v>32.7531020605716</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.701928093221</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.701928093221</v>
       </c>
       <c r="H3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.701928093221</v>
       </c>
       <c r="I3" t="n">
         <v>483.2418863309455</v>
@@ -26792,22 +26792,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>3.262548922260277</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="D4" t="n">
         <v>41.31500304752735</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="G4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.081894361934</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="I4" t="n">
         <v>610.9981428227682</v>
@@ -26816,7 +26816,7 @@
         <v>610.9981428227682</v>
       </c>
       <c r="K4" t="n">
-        <v>610.9981428227682</v>
+        <v>610.998142822768</v>
       </c>
       <c r="L4" t="n">
         <v>610.9981428227682</v>
@@ -26962,7 +26962,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2.662332998740293</v>
+        <v>2.662332998740292</v>
       </c>
       <c r="D3" t="n">
         <v>30.09076906183131</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.53995823772436</v>
+        <v>16.53995823772453</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>3.262548922260277</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="D4" t="n">
         <v>38.05245412526707</v>
       </c>
       <c r="E4" t="n">
-        <v>548.7668913144068</v>
+        <v>548.7668913144066</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,19 +27032,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>20.91624846083403</v>
+        <v>20.91624846083414</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>3.262548922260277</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="L4" t="n">
         <v>38.05245412526707</v>
       </c>
       <c r="M4" t="n">
-        <v>548.7668913144067</v>
+        <v>548.7668913144065</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>3.262548922260277</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="L4" t="n">
         <v>38.05245412526707</v>
       </c>
       <c r="M4" t="n">
-        <v>548.7668913144068</v>
+        <v>548.7668913144066</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>117.2172089782387</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C6" t="n">
         <v>105.3918965517241</v>
@@ -27703,16 +27703,16 @@
         <v>94.13938596491228</v>
       </c>
       <c r="E6" t="n">
-        <v>93.17921052631581</v>
+        <v>89.91666160405553</v>
       </c>
       <c r="F6" t="n">
-        <v>79.28745107773972</v>
+        <v>82.55</v>
       </c>
       <c r="G6" t="n">
         <v>84.52551230889576</v>
       </c>
       <c r="H6" t="n">
-        <v>41.26298946135317</v>
+        <v>38.00044053909289</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27757,13 +27757,13 @@
         <v>197.1263427586206</v>
       </c>
       <c r="W6" t="n">
-        <v>183.4695267241379</v>
+        <v>180.5958736334111</v>
       </c>
       <c r="X6" t="n">
         <v>150.0562124812485</v>
       </c>
       <c r="Y6" t="n">
-        <v>121.9583725063111</v>
+        <v>125.2209214285714</v>
       </c>
     </row>
     <row r="7">
@@ -27794,7 +27794,7 @@
         <v>138.4604679489429</v>
       </c>
       <c r="I7" t="n">
-        <v>84.36642380163354</v>
+        <v>87.62897272389382</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,22 +27827,22 @@
         <v>157.5652879271376</v>
       </c>
       <c r="T7" t="n">
-        <v>243.400138899798</v>
+        <v>240.1375899775377</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6484088706061</v>
+        <v>272.3858599483459</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>266.4324872788445</v>
       </c>
       <c r="X7" t="n">
-        <v>239.6752881976614</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.2718208883059</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -27940,16 +27940,16 @@
         <v>94.13938596491228</v>
       </c>
       <c r="E9" t="n">
-        <v>51.86420747878847</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F9" t="n">
         <v>82.55</v>
       </c>
       <c r="G9" t="n">
-        <v>43.14578572036749</v>
+        <v>84.46078876789484</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>40.6378963153706</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27982,22 +27982,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>24.44494263490342</v>
+        <v>61.51230405132225</v>
       </c>
       <c r="T9" t="n">
         <v>128.5928940176698</v>
       </c>
       <c r="U9" t="n">
-        <v>174.5685466570983</v>
+        <v>133.2535436095709</v>
       </c>
       <c r="V9" t="n">
-        <v>197.1263427586206</v>
+        <v>155.8113397110933</v>
       </c>
       <c r="W9" t="n">
-        <v>183.4695267241379</v>
+        <v>142.1545236766106</v>
       </c>
       <c r="X9" t="n">
-        <v>153.3187614035088</v>
+        <v>116.9285067192467</v>
       </c>
       <c r="Y9" t="n">
         <v>125.2209214285714</v>
@@ -28016,22 +28016,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>122.9042098229652</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>126.7454206642428</v>
       </c>
       <c r="F10" t="n">
-        <v>138.5497288135992</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>122.5612962059744</v>
+        <v>163.8762992535017</v>
       </c>
       <c r="H10" t="n">
-        <v>96.66302601383403</v>
+        <v>137.9780290613614</v>
       </c>
       <c r="I10" t="n">
-        <v>44.68216206888225</v>
+        <v>44.68216206888224</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>18.54795713427877</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>156.6196485125224</v>
@@ -28070,7 +28070,7 @@
         <v>275.6454491228296</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>266.2436554982905</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -31284,10 +31284,10 @@
         <v>0.1096105239129608</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791313975</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9083906948817446</v>
+        <v>0.9083906948817443</v>
       </c>
       <c r="K5" t="n">
         <v>1.361442175632203</v>
@@ -31296,10 +31296,10 @@
         <v>1.688989405823955</v>
       </c>
       <c r="M5" t="n">
-        <v>1.879326147397212</v>
+        <v>1.879326147397211</v>
       </c>
       <c r="N5" t="n">
-        <v>1.909735609237095</v>
+        <v>1.909735609237094</v>
       </c>
       <c r="O5" t="n">
         <v>1.803309182076396</v>
@@ -31311,16 +31311,16 @@
         <v>1.155786985397852</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6723126642497284</v>
+        <v>0.6723126642497281</v>
       </c>
       <c r="S5" t="n">
-        <v>0.2438911083770631</v>
+        <v>0.243891108377063</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0468517093547161</v>
+        <v>0.04685170935471608</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0008562276980873296</v>
+        <v>0.0008562276980873292</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,19 +31357,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.005726527582196102</v>
+        <v>0.0057265275821961</v>
       </c>
       <c r="H6" t="n">
-        <v>0.05530620059647288</v>
+        <v>0.05530620059647287</v>
       </c>
       <c r="I6" t="n">
         <v>0.19716334000105</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5410312747723081</v>
+        <v>0.5410312747723079</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9247086227794469</v>
+        <v>0.9247086227794465</v>
       </c>
       <c r="L6" t="n">
         <v>1.243384859458851</v>
@@ -31387,19 +31387,19 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.7309862225975235</v>
+        <v>0.7309862225975232</v>
       </c>
       <c r="R6" t="n">
-        <v>0.3555470370770528</v>
+        <v>0.3555470370770527</v>
       </c>
       <c r="S6" t="n">
-        <v>0.1063677382043881</v>
+        <v>0.106367738204388</v>
       </c>
       <c r="T6" t="n">
         <v>0.02308192477209743</v>
       </c>
       <c r="U6" t="n">
-        <v>0.0003767452356707963</v>
+        <v>0.0003767452356707962</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.004800928358384134</v>
+        <v>0.004800928358384133</v>
       </c>
       <c r="H7" t="n">
-        <v>0.04268461758636079</v>
+        <v>0.04268461758636077</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1443770091775884</v>
+        <v>0.1443770091775883</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3394256349377582</v>
+        <v>0.3394256349377581</v>
       </c>
       <c r="K7" t="n">
-        <v>0.5577805856377201</v>
+        <v>0.55778058563772</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7137671124819468</v>
+        <v>0.7137671124819465</v>
       </c>
       <c r="M7" t="n">
-        <v>0.7525673425783419</v>
+        <v>0.7525673425783417</v>
       </c>
       <c r="N7" t="n">
-        <v>0.7346729732425471</v>
+        <v>0.7346729732425469</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6785894010559685</v>
+        <v>0.6785894010559683</v>
       </c>
       <c r="P7" t="n">
-        <v>0.5806504625449318</v>
+        <v>0.5806504625449316</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.4020122828097842</v>
+        <v>0.4020122828097841</v>
       </c>
       <c r="R7" t="n">
         <v>0.2158671969142538</v>
       </c>
       <c r="S7" t="n">
-        <v>0.08366708784565802</v>
+        <v>0.08366708784565799</v>
       </c>
       <c r="T7" t="n">
-        <v>0.02051305753127766</v>
+        <v>0.02051305753127765</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0002618688195482258</v>
+        <v>0.0002618688195482257</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31758,28 +31758,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -31791,7 +31791,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U11" t="n">
         <v>0.1500950924520911</v>
@@ -31834,13 +31834,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I12" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -31852,25 +31852,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U12" t="n">
         <v>0.06604272567356906</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I13" t="n">
         <v>25.30901603495698</v>
@@ -31922,7 +31922,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
@@ -31946,10 +31946,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U13" t="n">
         <v>0.04590510768130049</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H14" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J14" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q14" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R14" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S14" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,46 +32071,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I15" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.8417569156242</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N15" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600662</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I16" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M16" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R16" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H17" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J17" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q17" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R17" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S17" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32308,46 +32308,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I18" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K18" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L18" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917241</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600662</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I19" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L19" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M19" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R19" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H20" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R20" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S20" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,46 +32545,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I21" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L21" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742733</v>
+        <v>238.841315974274</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
-        <v>4.046217659600662</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I22" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L22" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M22" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O22" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R22" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S22" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33028,7 +33028,7 @@
         <v>98.20295729674433</v>
       </c>
       <c r="K27" t="n">
-        <v>108.3037213222563</v>
+        <v>167.8444955570417</v>
       </c>
       <c r="L27" t="n">
         <v>225.6876375737119</v>
@@ -33040,7 +33040,7 @@
         <v>270.3373643164032</v>
       </c>
       <c r="O27" t="n">
-        <v>247.3058736584415</v>
+        <v>187.765099423656</v>
       </c>
       <c r="P27" t="n">
         <v>198.4847664818558</v>
@@ -33274,13 +33274,13 @@
         <v>263.3668280503653</v>
       </c>
       <c r="N30" t="n">
-        <v>210.7965900816178</v>
+        <v>270.3373643164032</v>
       </c>
       <c r="O30" t="n">
         <v>247.3058736584415</v>
       </c>
       <c r="P30" t="n">
-        <v>198.4847664818558</v>
+        <v>138.9439922470704</v>
       </c>
       <c r="Q30" t="n">
         <v>132.6818099978853</v>
@@ -33499,10 +33499,10 @@
         <v>35.78725290281059</v>
       </c>
       <c r="J33" t="n">
-        <v>98.20295729674433</v>
+        <v>38.6621830619589</v>
       </c>
       <c r="K33" t="n">
-        <v>108.3037213222563</v>
+        <v>167.8444955570417</v>
       </c>
       <c r="L33" t="n">
         <v>225.6876375737119</v>
@@ -33991,10 +33991,10 @@
         <v>247.3058736584415</v>
       </c>
       <c r="P39" t="n">
-        <v>198.4847664818558</v>
+        <v>138.9439922470704</v>
       </c>
       <c r="Q39" t="n">
-        <v>73.14103576309981</v>
+        <v>132.6818099978853</v>
       </c>
       <c r="R39" t="n">
         <v>64.53558625378177</v>
@@ -34219,7 +34219,7 @@
         <v>225.6876375737119</v>
       </c>
       <c r="M42" t="n">
-        <v>203.8260538155798</v>
+        <v>263.3668280503653</v>
       </c>
       <c r="N42" t="n">
         <v>270.3373643164032</v>
@@ -34231,7 +34231,7 @@
         <v>198.4847664818558</v>
       </c>
       <c r="Q42" t="n">
-        <v>132.6818099978853</v>
+        <v>73.14103576309981</v>
       </c>
       <c r="R42" t="n">
         <v>64.53558625378177</v>
@@ -34444,10 +34444,10 @@
         <v>10.03866635566738</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>35.78725290281059</v>
       </c>
       <c r="J45" t="n">
-        <v>74.44943596476949</v>
+        <v>98.20295729674433</v>
       </c>
       <c r="K45" t="n">
         <v>167.8444955570417</v>
@@ -34465,7 +34465,7 @@
         <v>247.3058736584415</v>
       </c>
       <c r="P45" t="n">
-        <v>198.4847664818558</v>
+        <v>138.9439922470704</v>
       </c>
       <c r="Q45" t="n">
         <v>132.6818099978853</v>
@@ -34935,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9083906948817446</v>
+        <v>0.9083906948817464</v>
       </c>
       <c r="K5" t="n">
         <v>1.361442175632203</v>
       </c>
       <c r="L5" t="n">
-        <v>1.688989405823956</v>
+        <v>1.688989405823955</v>
       </c>
       <c r="M5" t="n">
         <v>1.879326147397212</v>
@@ -34950,16 +34950,16 @@
         <v>1.909735609237094</v>
       </c>
       <c r="O5" t="n">
-        <v>1.803309182076397</v>
+        <v>1.803309182076395</v>
       </c>
       <c r="P5" t="n">
-        <v>1.53908266586976</v>
+        <v>1.539082665869758</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.155786985397853</v>
+        <v>1.155786985397851</v>
       </c>
       <c r="R5" t="n">
-        <v>0.672312664249727</v>
+        <v>0.6723126642497288</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,10 +35011,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>3.262548922260278</v>
+        <v>1.004851808738581</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5410312747723083</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="K6" t="n">
         <v>0.9247086227794465</v>
@@ -35023,7 +35023,7 @@
         <v>1.243384859458851</v>
       </c>
       <c r="M6" t="n">
-        <v>1.45097148431346</v>
+        <v>1.450971484313459</v>
       </c>
       <c r="N6" t="n">
         <v>1.489374382002836</v>
@@ -35035,7 +35035,7 @@
         <v>1.093515604709008</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.194806756563796</v>
+        <v>0.7309862225975223</v>
       </c>
       <c r="R6" t="n">
         <v>0.3555470370770522</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>3.262548922260278</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="K7" t="n">
-        <v>2.933030394141654</v>
+        <v>0.5577805856377203</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7137671124819471</v>
+        <v>0.7137671124819462</v>
       </c>
       <c r="M7" t="n">
         <v>0.7525673425783417</v>
@@ -35108,13 +35108,13 @@
         <v>0.7346729732425468</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6785894010559694</v>
+        <v>0.6785894010559685</v>
       </c>
       <c r="P7" t="n">
-        <v>0.5806504625449325</v>
+        <v>2.955900271048868</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.262548922260278</v>
+        <v>3.262548922260276</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35248,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2.425583501655538</v>
+        <v>28.75252608797635</v>
       </c>
       <c r="J9" t="n">
-        <v>6.655986523460121</v>
+        <v>28.41038681069788</v>
       </c>
       <c r="K9" t="n">
         <v>11.37614111852891</v>
@@ -35260,7 +35260,7 @@
         <v>15.29662563687356</v>
       </c>
       <c r="M9" t="n">
-        <v>28.99086453177344</v>
+        <v>17.85044062301152</v>
       </c>
       <c r="N9" t="n">
         <v>18.32288867065883</v>
@@ -35269,13 +35269,13 @@
         <v>16.76186346679083</v>
       </c>
       <c r="P9" t="n">
-        <v>13.45287318408647</v>
+        <v>13.45287318408649</v>
       </c>
       <c r="Q9" t="n">
-        <v>8.992889456329024</v>
+        <v>8.99288945632901</v>
       </c>
       <c r="R9" t="n">
-        <v>41.31500304752734</v>
+        <v>4.37408408273069</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>41.31500304752735</v>
       </c>
       <c r="K10" t="n">
-        <v>6.862043349739423</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L10" t="n">
-        <v>8.781052968829314</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="M10" t="n">
-        <v>10.70861279263667</v>
+        <v>10.17006588498498</v>
       </c>
       <c r="N10" t="n">
-        <v>41.31500304752736</v>
+        <v>9.038245360419694</v>
       </c>
       <c r="O10" t="n">
-        <v>8.348282472750284</v>
+        <v>8.348282472750299</v>
       </c>
       <c r="P10" t="n">
-        <v>41.31500304752734</v>
+        <v>7.143397865800722</v>
       </c>
       <c r="Q10" t="n">
         <v>4.945718411146316</v>
@@ -35406,7 +35406,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
@@ -35415,7 +35415,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M11" t="n">
         <v>329.4423112816032</v>
@@ -35424,10 +35424,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -35485,16 +35485,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916794</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L12" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646688</v>
       </c>
       <c r="M12" t="n">
         <v>254.3525508108055</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L13" t="n">
-        <v>125.1220218366645</v>
+        <v>281.8524450409507</v>
       </c>
       <c r="M13" t="n">
-        <v>131.9236286247773</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N13" t="n">
-        <v>304.5047560030955</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O13" t="n">
-        <v>542.8637682561043</v>
+        <v>542.8637682561045</v>
       </c>
       <c r="P13" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q13" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R13" t="n">
         <v>16.63746735027015</v>
@@ -35643,19 +35643,19 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J14" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
@@ -35670,7 +35670,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R14" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.8417569156242</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N15" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P15" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R15" t="n">
         <v>62.32672164233622</v>
@@ -35804,16 +35804,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K16" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L16" t="n">
-        <v>547.556245844706</v>
+        <v>266.5900650540085</v>
       </c>
       <c r="M16" t="n">
-        <v>309.1157135712374</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N16" t="n">
         <v>128.7867795998884</v>
@@ -35828,7 +35828,7 @@
         <v>240.36368292423</v>
       </c>
       <c r="R16" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,25 +35880,25 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J17" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766671</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816035</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548407</v>
       </c>
       <c r="P17" t="n">
         <v>269.7982739184536</v>
@@ -35907,7 +35907,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K18" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L18" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M18" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811312</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917241</v>
       </c>
       <c r="Q18" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R18" t="n">
         <v>62.32672164233622</v>
@@ -36041,31 +36041,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K19" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L19" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M19" t="n">
-        <v>131.9236286247773</v>
+        <v>590.0818943619339</v>
       </c>
       <c r="N19" t="n">
-        <v>304.5047560030955</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O19" t="n">
-        <v>542.8637682561043</v>
+        <v>277.1599674523495</v>
       </c>
       <c r="P19" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q19" t="n">
-        <v>240.36368292423</v>
+        <v>70.47199114207615</v>
       </c>
       <c r="R19" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36117,19 +36117,19 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J20" t="n">
-        <v>159.2391669125709</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062836</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766671</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
@@ -36144,7 +36144,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R20" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K21" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L21" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M21" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811312</v>
       </c>
       <c r="O21" t="n">
-        <v>238.8413159742734</v>
+        <v>238.841315974274</v>
       </c>
       <c r="P21" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R21" t="n">
         <v>62.32672164233622</v>
@@ -36278,31 +36278,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L22" t="n">
-        <v>125.1220218366646</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M22" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619339</v>
       </c>
       <c r="N22" t="n">
-        <v>562.3515748176221</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O22" t="n">
-        <v>542.8637682561043</v>
+        <v>277.1599674523495</v>
       </c>
       <c r="P22" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>240.36368292423</v>
+        <v>70.47199114207615</v>
       </c>
       <c r="R22" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36357,16 +36357,16 @@
         <v>74.4825858486024</v>
       </c>
       <c r="J23" t="n">
-        <v>164.8826172863564</v>
+        <v>164.8826172863562</v>
       </c>
       <c r="K23" t="n">
-        <v>247.116301902995</v>
+        <v>247.1163019029951</v>
       </c>
       <c r="L23" t="n">
         <v>306.5696240288269</v>
       </c>
       <c r="M23" t="n">
-        <v>341.117776374708</v>
+        <v>341.1177763747082</v>
       </c>
       <c r="N23" t="n">
         <v>346.6374186241064</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>61.60937950812726</v>
+        <v>149.0636069472079</v>
       </c>
       <c r="K25" t="n">
-        <v>101.2431361854013</v>
+        <v>378.7769286814979</v>
       </c>
       <c r="L25" t="n">
-        <v>332.2301639606475</v>
+        <v>316.9677839737044</v>
       </c>
       <c r="M25" t="n">
         <v>600.7241322334847</v>
       </c>
       <c r="N25" t="n">
-        <v>580.0770584285319</v>
+        <v>133.3509946329314</v>
       </c>
       <c r="O25" t="n">
-        <v>547.0795595787295</v>
+        <v>123.1712270274352</v>
       </c>
       <c r="P25" t="n">
-        <v>105.3942632089656</v>
+        <v>456.4113278254724</v>
       </c>
       <c r="Q25" t="n">
-        <v>72.96952483597261</v>
+        <v>242.8612166181265</v>
       </c>
       <c r="R25" t="n">
         <v>17.9785597018076</v>
@@ -36594,10 +36594,10 @@
         <v>74.4825858486024</v>
       </c>
       <c r="J26" t="n">
-        <v>164.8826172863562</v>
+        <v>164.882617286356</v>
       </c>
       <c r="K26" t="n">
-        <v>247.1163019029951</v>
+        <v>247.116301902995</v>
       </c>
       <c r="L26" t="n">
         <v>306.569624028827</v>
@@ -36676,7 +36676,7 @@
         <v>98.20295729674433</v>
       </c>
       <c r="K27" t="n">
-        <v>108.3037213222563</v>
+        <v>167.8444955570417</v>
       </c>
       <c r="L27" t="n">
         <v>225.6876375737119</v>
@@ -36688,7 +36688,7 @@
         <v>270.3373643164032</v>
       </c>
       <c r="O27" t="n">
-        <v>247.3058736584414</v>
+        <v>187.765099423656</v>
       </c>
       <c r="P27" t="n">
         <v>198.4847664818558</v>
@@ -36752,25 +36752,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>61.60937950812726</v>
+        <v>149.0636069472079</v>
       </c>
       <c r="K28" t="n">
         <v>378.7769286814979</v>
       </c>
       <c r="L28" t="n">
-        <v>129.5563575255128</v>
+        <v>551.9905815335545</v>
       </c>
       <c r="M28" t="n">
-        <v>136.5990138689261</v>
+        <v>136.599013868926</v>
       </c>
       <c r="N28" t="n">
-        <v>580.077058428532</v>
+        <v>133.3509946329314</v>
       </c>
       <c r="O28" t="n">
-        <v>547.0795595787295</v>
+        <v>352.2735478321438</v>
       </c>
       <c r="P28" t="n">
-        <v>324.7677037304084</v>
+        <v>456.4113278254724</v>
       </c>
       <c r="Q28" t="n">
         <v>242.8612166181265</v>
@@ -36831,7 +36831,7 @@
         <v>74.4825858486024</v>
       </c>
       <c r="J29" t="n">
-        <v>164.8826172863564</v>
+        <v>164.8826172863562</v>
       </c>
       <c r="K29" t="n">
         <v>247.116301902995</v>
@@ -36910,7 +36910,7 @@
         <v>35.78725290281059</v>
       </c>
       <c r="J30" t="n">
-        <v>98.20295729674433</v>
+        <v>98.20295729674434</v>
       </c>
       <c r="K30" t="n">
         <v>167.8444955570417</v>
@@ -36922,13 +36922,13 @@
         <v>263.3668280503653</v>
       </c>
       <c r="N30" t="n">
-        <v>210.7965900816178</v>
+        <v>270.3373643164032</v>
       </c>
       <c r="O30" t="n">
         <v>247.3058736584414</v>
       </c>
       <c r="P30" t="n">
-        <v>198.4847664818558</v>
+        <v>138.9439922470704</v>
       </c>
       <c r="Q30" t="n">
         <v>132.6818099978852</v>
@@ -36992,25 +36992,25 @@
         <v>61.60937950812726</v>
       </c>
       <c r="K31" t="n">
-        <v>101.2431361854013</v>
+        <v>378.7769286814979</v>
       </c>
       <c r="L31" t="n">
         <v>551.9905815335544</v>
       </c>
       <c r="M31" t="n">
-        <v>380.9637146605778</v>
+        <v>136.599013868926</v>
       </c>
       <c r="N31" t="n">
-        <v>580.0770584285319</v>
+        <v>133.3509946329314</v>
       </c>
       <c r="O31" t="n">
-        <v>547.0795595787295</v>
+        <v>439.7277752712241</v>
       </c>
       <c r="P31" t="n">
-        <v>105.3942632089656</v>
+        <v>456.4113278254724</v>
       </c>
       <c r="Q31" t="n">
-        <v>72.96952483597261</v>
+        <v>242.8612166181265</v>
       </c>
       <c r="R31" t="n">
         <v>17.9785597018076</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>35.78725290281056</v>
+        <v>35.78725290281059</v>
       </c>
       <c r="J33" t="n">
-        <v>98.20295729674433</v>
+        <v>38.6621830619589</v>
       </c>
       <c r="K33" t="n">
-        <v>108.3037213222563</v>
+        <v>167.8444955570417</v>
       </c>
       <c r="L33" t="n">
-        <v>225.687637573712</v>
+        <v>225.6876375737119</v>
       </c>
       <c r="M33" t="n">
         <v>263.3668280503653</v>
@@ -37168,7 +37168,7 @@
         <v>198.4847664818558</v>
       </c>
       <c r="Q33" t="n">
-        <v>132.6818099978855</v>
+        <v>132.6818099978852</v>
       </c>
       <c r="R33" t="n">
         <v>64.53558625378173</v>
@@ -37229,19 +37229,19 @@
         <v>61.60937950812726</v>
       </c>
       <c r="K34" t="n">
-        <v>101.2431361854013</v>
+        <v>378.7769286814979</v>
       </c>
       <c r="L34" t="n">
-        <v>551.9905815335544</v>
+        <v>444.6387972260492</v>
       </c>
       <c r="M34" t="n">
         <v>136.5990138689261</v>
       </c>
       <c r="N34" t="n">
-        <v>580.077058428532</v>
+        <v>133.3509946329314</v>
       </c>
       <c r="O34" t="n">
-        <v>270.5355039717203</v>
+        <v>547.0795595787297</v>
       </c>
       <c r="P34" t="n">
         <v>456.4113278254724</v>
@@ -37463,25 +37463,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>149.0636069472079</v>
+        <v>61.60937950812726</v>
       </c>
       <c r="K37" t="n">
         <v>378.7769286814979</v>
       </c>
       <c r="L37" t="n">
-        <v>129.5563575255129</v>
+        <v>129.5563575255128</v>
       </c>
       <c r="M37" t="n">
-        <v>600.7241322334846</v>
+        <v>451.6814535694621</v>
       </c>
       <c r="N37" t="n">
-        <v>580.0770584285319</v>
+        <v>133.3509946329314</v>
       </c>
       <c r="O37" t="n">
-        <v>123.1712270274352</v>
+        <v>547.0795595787297</v>
       </c>
       <c r="P37" t="n">
-        <v>197.096690478063</v>
+        <v>456.4113278254724</v>
       </c>
       <c r="Q37" t="n">
         <v>242.8612166181265</v>
@@ -37639,10 +37639,10 @@
         <v>247.3058736584414</v>
       </c>
       <c r="P39" t="n">
-        <v>198.4847664818558</v>
+        <v>138.9439922470704</v>
       </c>
       <c r="Q39" t="n">
-        <v>73.14103576309981</v>
+        <v>132.6818099978852</v>
       </c>
       <c r="R39" t="n">
         <v>64.53558625378173</v>
@@ -37709,13 +37709,13 @@
         <v>129.5563575255129</v>
       </c>
       <c r="M40" t="n">
-        <v>600.7241322334846</v>
+        <v>136.5990138689261</v>
       </c>
       <c r="N40" t="n">
-        <v>133.3509946329314</v>
+        <v>360.9792068943865</v>
       </c>
       <c r="O40" t="n">
-        <v>310.5826534756263</v>
+        <v>547.0795595787297</v>
       </c>
       <c r="P40" t="n">
         <v>456.4113278254724</v>
@@ -37867,7 +37867,7 @@
         <v>225.6876375737119</v>
       </c>
       <c r="M42" t="n">
-        <v>203.8260538155798</v>
+        <v>263.3668280503653</v>
       </c>
       <c r="N42" t="n">
         <v>270.3373643164032</v>
@@ -37879,7 +37879,7 @@
         <v>198.4847664818558</v>
       </c>
       <c r="Q42" t="n">
-        <v>132.6818099978852</v>
+        <v>73.14103576309981</v>
       </c>
       <c r="R42" t="n">
         <v>64.53558625378173</v>
@@ -37940,25 +37940,25 @@
         <v>61.60937950812726</v>
       </c>
       <c r="K43" t="n">
-        <v>378.7769286814979</v>
+        <v>101.2431361854013</v>
       </c>
       <c r="L43" t="n">
-        <v>129.5563575255128</v>
+        <v>332.2301639606475</v>
       </c>
       <c r="M43" t="n">
-        <v>136.5990138689261</v>
+        <v>600.7241322334847</v>
       </c>
       <c r="N43" t="n">
-        <v>580.077058428532</v>
+        <v>580.0770584285319</v>
       </c>
       <c r="O43" t="n">
-        <v>415.4359354836654</v>
+        <v>547.0795595787295</v>
       </c>
       <c r="P43" t="n">
-        <v>456.4113278254724</v>
+        <v>105.3942632089656</v>
       </c>
       <c r="Q43" t="n">
-        <v>242.8612166181265</v>
+        <v>72.96952483597261</v>
       </c>
       <c r="R43" t="n">
         <v>17.9785597018076</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>35.78725290281059</v>
       </c>
       <c r="J45" t="n">
-        <v>74.44943596476949</v>
+        <v>98.20295729674433</v>
       </c>
       <c r="K45" t="n">
         <v>167.8444955570417</v>
@@ -38113,7 +38113,7 @@
         <v>247.3058736584414</v>
       </c>
       <c r="P45" t="n">
-        <v>198.4847664818558</v>
+        <v>138.9439922470704</v>
       </c>
       <c r="Q45" t="n">
         <v>132.6818099978852</v>
@@ -38177,16 +38177,16 @@
         <v>61.60937950812726</v>
       </c>
       <c r="K46" t="n">
-        <v>101.2431361854013</v>
+        <v>378.7769286814979</v>
       </c>
       <c r="L46" t="n">
-        <v>551.9905815335544</v>
+        <v>444.6387972260492</v>
       </c>
       <c r="M46" t="n">
         <v>136.5990138689261</v>
       </c>
       <c r="N46" t="n">
-        <v>303.5330028215227</v>
+        <v>133.3509946329314</v>
       </c>
       <c r="O46" t="n">
         <v>547.0795595787297</v>
